--- a/In-Progress-Transcriptions/Geiger TEI/Letter-tracker.xlsx.xlsx
+++ b/In-Progress-Transcriptions/Geiger TEI/Letter-tracker.xlsx.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$B$1:$B$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$1000</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="559">
   <si>
     <t>File</t>
   </si>
@@ -1695,21 +1704,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1748,6 +1772,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1762,107 +1787,415 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.75"/>
-    <col customWidth="1" min="2" max="2" width="7.75"/>
-    <col customWidth="1" min="3" max="3" width="51.5"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
-    <col customWidth="1" min="5" max="6" width="7.75"/>
-    <col customWidth="1" min="7" max="26" width="7.63"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +2229,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +2259,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +2289,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +2319,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2349,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2379,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2076,7 +2409,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2439,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2136,7 +2469,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -2166,7 +2499,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2196,7 +2529,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2226,7 +2559,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2589,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +2619,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2316,7 +2649,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2346,7 +2679,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2376,7 +2709,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2406,7 +2739,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2436,7 +2769,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2799,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2496,7 +2829,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -2526,7 +2859,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -2556,7 +2889,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2586,7 +2919,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -2616,7 +2949,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -2646,7 +2979,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -2676,7 +3009,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -2706,7 +3039,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -2736,7 +3069,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2766,7 +3099,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2796,7 +3129,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -2826,7 +3159,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:26">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2856,7 +3189,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:26">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2886,7 +3219,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:26">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -2916,7 +3249,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:26">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2946,7 +3279,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:26">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -2976,7 +3309,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:26">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -3006,7 +3339,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:26">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -3036,7 +3369,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:26">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -3066,7 +3399,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:26">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -3096,7 +3429,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:26">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -3126,7 +3459,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:26">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -3156,7 +3489,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:26">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3519,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:26">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -3216,7 +3549,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:26">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -3246,7 +3579,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:26">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -3276,7 +3609,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:26">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -3306,7 +3639,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:26">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -3336,7 +3669,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:26">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -3366,7 +3699,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:26">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
@@ -3396,7 +3729,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:26">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -3426,7 +3759,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:26">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -3456,7 +3789,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:26">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
@@ -3486,7 +3819,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:26">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -3516,7 +3849,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:26">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -3546,7 +3879,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:26">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -3576,7 +3909,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:26">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -3606,7 +3939,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:26">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -3636,7 +3969,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:26">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3666,7 +3999,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:26">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
@@ -3696,7 +4029,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:26">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -3726,7 +4059,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:26">
       <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
@@ -3756,7 +4089,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:26">
       <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
@@ -3786,7 +4119,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:26">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3816,7 +4149,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:26">
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
@@ -3846,7 +4179,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:26">
       <c r="A67" s="4" t="s">
         <v>68</v>
       </c>
@@ -3876,7 +4209,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:26">
       <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
@@ -3906,7 +4239,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:26">
       <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
@@ -3936,7 +4269,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:26">
       <c r="A70" s="4" t="s">
         <v>71</v>
       </c>
@@ -3966,7 +4299,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:26">
       <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
@@ -3996,7 +4329,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:26">
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
@@ -4026,7 +4359,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:26">
       <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
@@ -4056,7 +4389,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:26">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -4086,7 +4419,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:26">
       <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
@@ -4116,7 +4449,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:26">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -4146,7 +4479,7 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:26">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
@@ -4176,7 +4509,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:26">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
@@ -4206,7 +4539,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:26">
       <c r="A79" s="4" t="s">
         <v>80</v>
       </c>
@@ -4236,7 +4569,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:26">
       <c r="A80" s="4" t="s">
         <v>81</v>
       </c>
@@ -4266,7 +4599,7 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:26">
       <c r="A81" s="4" t="s">
         <v>82</v>
       </c>
@@ -4296,7 +4629,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:26">
       <c r="A82" s="4" t="s">
         <v>83</v>
       </c>
@@ -4326,7 +4659,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:26">
       <c r="A83" s="4" t="s">
         <v>84</v>
       </c>
@@ -4356,7 +4689,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:26">
       <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
@@ -4386,7 +4719,7 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:26">
       <c r="A85" s="4" t="s">
         <v>86</v>
       </c>
@@ -4416,7 +4749,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:26">
       <c r="A86" s="4" t="s">
         <v>87</v>
       </c>
@@ -4446,7 +4779,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:26">
       <c r="A87" s="4" t="s">
         <v>88</v>
       </c>
@@ -4476,7 +4809,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:26">
       <c r="A88" s="4" t="s">
         <v>89</v>
       </c>
@@ -4506,7 +4839,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:26">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -4536,7 +4869,7 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:26">
       <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
@@ -4566,7 +4899,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:26">
       <c r="A91" s="4" t="s">
         <v>92</v>
       </c>
@@ -4596,7 +4929,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:26">
       <c r="A92" s="4" t="s">
         <v>93</v>
       </c>
@@ -4626,7 +4959,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:26">
       <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
@@ -4656,7 +4989,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:26">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
@@ -4686,7 +5019,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:26">
       <c r="A95" s="4" t="s">
         <v>96</v>
       </c>
@@ -4716,7 +5049,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:26">
       <c r="A96" s="4" t="s">
         <v>97</v>
       </c>
@@ -4746,7 +5079,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:26">
       <c r="A97" s="4" t="s">
         <v>98</v>
       </c>
@@ -4776,7 +5109,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:26">
       <c r="A98" s="4" t="s">
         <v>99</v>
       </c>
@@ -4806,7 +5139,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:26">
       <c r="A99" s="4" t="s">
         <v>100</v>
       </c>
@@ -4836,7 +5169,7 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:26">
       <c r="A100" s="4" t="s">
         <v>101</v>
       </c>
@@ -4866,7 +5199,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:26">
       <c r="A101" s="4" t="s">
         <v>102</v>
       </c>
@@ -4896,7 +5229,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:26">
       <c r="A102" s="4" t="s">
         <v>103</v>
       </c>
@@ -4926,7 +5259,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:26">
       <c r="A103" s="4" t="s">
         <v>104</v>
       </c>
@@ -4956,7 +5289,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:26">
       <c r="A104" s="4" t="s">
         <v>105</v>
       </c>
@@ -4986,7 +5319,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:26">
       <c r="A105" s="4" t="s">
         <v>106</v>
       </c>
@@ -5016,7 +5349,7 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:26">
       <c r="A106" s="4" t="s">
         <v>107</v>
       </c>
@@ -5046,7 +5379,7 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:26">
       <c r="A107" s="4" t="s">
         <v>108</v>
       </c>
@@ -5076,7 +5409,7 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:26">
       <c r="A108" s="4" t="s">
         <v>109</v>
       </c>
@@ -5106,7 +5439,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:26">
       <c r="A109" s="4" t="s">
         <v>110</v>
       </c>
@@ -5136,7 +5469,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:26">
       <c r="A110" s="4" t="s">
         <v>111</v>
       </c>
@@ -5166,7 +5499,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:26">
       <c r="A111" s="4" t="s">
         <v>112</v>
       </c>
@@ -5196,7 +5529,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:26">
       <c r="A112" s="4" t="s">
         <v>113</v>
       </c>
@@ -5226,7 +5559,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:26">
       <c r="A113" s="4" t="s">
         <v>114</v>
       </c>
@@ -5256,7 +5589,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:26">
       <c r="A114" s="4" t="s">
         <v>115</v>
       </c>
@@ -5286,7 +5619,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:26">
       <c r="A115" s="4" t="s">
         <v>116</v>
       </c>
@@ -5316,7 +5649,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:26">
       <c r="A116" s="4" t="s">
         <v>117</v>
       </c>
@@ -5346,7 +5679,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:26">
       <c r="A117" s="4" t="s">
         <v>118</v>
       </c>
@@ -5376,7 +5709,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:26">
       <c r="A118" s="4" t="s">
         <v>119</v>
       </c>
@@ -5406,7 +5739,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:26">
       <c r="A119" s="4" t="s">
         <v>120</v>
       </c>
@@ -5436,7 +5769,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:26">
       <c r="A120" s="4" t="s">
         <v>121</v>
       </c>
@@ -5466,7 +5799,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:26">
       <c r="A121" s="4" t="s">
         <v>122</v>
       </c>
@@ -5496,7 +5829,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:26">
       <c r="A122" s="4" t="s">
         <v>123</v>
       </c>
@@ -5526,7 +5859,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:26">
       <c r="A123" s="4" t="s">
         <v>124</v>
       </c>
@@ -5556,7 +5889,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:26">
       <c r="A124" s="4" t="s">
         <v>125</v>
       </c>
@@ -5586,7 +5919,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:26">
       <c r="A125" s="4" t="s">
         <v>126</v>
       </c>
@@ -5616,7 +5949,7 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:26">
       <c r="A126" s="4" t="s">
         <v>127</v>
       </c>
@@ -5646,7 +5979,7 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:26">
       <c r="A127" s="4" t="s">
         <v>128</v>
       </c>
@@ -5676,7 +6009,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:26">
       <c r="A128" s="4" t="s">
         <v>129</v>
       </c>
@@ -5706,7 +6039,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:26">
       <c r="A129" s="4" t="s">
         <v>130</v>
       </c>
@@ -5736,7 +6069,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:26">
       <c r="A130" s="4" t="s">
         <v>131</v>
       </c>
@@ -5766,7 +6099,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:26">
       <c r="A131" s="4" t="s">
         <v>132</v>
       </c>
@@ -5796,7 +6129,7 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:26">
       <c r="A132" s="4" t="s">
         <v>133</v>
       </c>
@@ -5826,7 +6159,7 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:26">
       <c r="A133" s="4" t="s">
         <v>134</v>
       </c>
@@ -5856,7 +6189,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:26">
       <c r="A134" s="4" t="s">
         <v>135</v>
       </c>
@@ -5886,7 +6219,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:26">
       <c r="A135" s="4" t="s">
         <v>136</v>
       </c>
@@ -5916,7 +6249,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:26">
       <c r="A136" s="4" t="s">
         <v>137</v>
       </c>
@@ -5946,7 +6279,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:26">
       <c r="A137" s="4" t="s">
         <v>138</v>
       </c>
@@ -5978,7 +6311,7 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:26">
       <c r="A138" s="4" t="s">
         <v>140</v>
       </c>
@@ -6010,7 +6343,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:26">
       <c r="A139" s="4" t="s">
         <v>141</v>
       </c>
@@ -6042,7 +6375,7 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:26" ht="84">
       <c r="A140" s="4" t="s">
         <v>142</v>
       </c>
@@ -6076,7 +6409,7 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:26">
       <c r="A141" s="4" t="s">
         <v>145</v>
       </c>
@@ -6108,7 +6441,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:26">
       <c r="A142" s="4" t="s">
         <v>146</v>
       </c>
@@ -6140,7 +6473,7 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:26">
       <c r="A143" s="4" t="s">
         <v>147</v>
       </c>
@@ -6172,7 +6505,7 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:26">
       <c r="A144" s="4" t="s">
         <v>148</v>
       </c>
@@ -6204,7 +6537,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:26">
       <c r="A145" s="4" t="s">
         <v>149</v>
       </c>
@@ -6236,7 +6569,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:26">
       <c r="A146" s="4" t="s">
         <v>150</v>
       </c>
@@ -6268,7 +6601,7 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:26">
       <c r="A147" s="4" t="s">
         <v>151</v>
       </c>
@@ -6300,7 +6633,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:26">
       <c r="A148" s="4" t="s">
         <v>152</v>
       </c>
@@ -6332,7 +6665,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:26">
       <c r="A149" s="4" t="s">
         <v>153</v>
       </c>
@@ -6366,7 +6699,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:26">
       <c r="A150" s="4" t="s">
         <v>155</v>
       </c>
@@ -6398,7 +6731,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:26">
       <c r="A151" s="4" t="s">
         <v>156</v>
       </c>
@@ -6430,7 +6763,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:26">
       <c r="A152" s="4" t="s">
         <v>157</v>
       </c>
@@ -6462,7 +6795,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:26">
       <c r="A153" s="4" t="s">
         <v>158</v>
       </c>
@@ -6494,7 +6827,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:26">
       <c r="A154" s="4" t="s">
         <v>159</v>
       </c>
@@ -6526,7 +6859,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:26">
       <c r="A155" s="4" t="s">
         <v>160</v>
       </c>
@@ -6558,7 +6891,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:26">
       <c r="A156" s="4" t="s">
         <v>161</v>
       </c>
@@ -6590,7 +6923,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:26">
       <c r="A157" s="4" t="s">
         <v>162</v>
       </c>
@@ -6622,7 +6955,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:26">
       <c r="A158" s="4" t="s">
         <v>163</v>
       </c>
@@ -6654,7 +6987,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:26">
       <c r="A159" s="4" t="s">
         <v>164</v>
       </c>
@@ -6686,7 +7019,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:26">
       <c r="A160" s="4" t="s">
         <v>165</v>
       </c>
@@ -6718,7 +7051,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:26">
       <c r="A161" s="4" t="s">
         <v>166</v>
       </c>
@@ -6750,7 +7083,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:26">
       <c r="A162" s="4" t="s">
         <v>167</v>
       </c>
@@ -6784,7 +7117,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:26">
       <c r="A163" s="4" t="s">
         <v>169</v>
       </c>
@@ -6816,7 +7149,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:26">
       <c r="A164" s="4" t="s">
         <v>170</v>
       </c>
@@ -6848,7 +7181,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:26">
       <c r="A165" s="4" t="s">
         <v>171</v>
       </c>
@@ -6880,7 +7213,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:26">
       <c r="A166" s="4" t="s">
         <v>172</v>
       </c>
@@ -6912,7 +7245,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:26">
       <c r="A167" s="4" t="s">
         <v>173</v>
       </c>
@@ -6946,7 +7279,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:26">
       <c r="A168" s="4" t="s">
         <v>174</v>
       </c>
@@ -6978,7 +7311,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:26">
       <c r="A169" s="4" t="s">
         <v>175</v>
       </c>
@@ -7010,7 +7343,7 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:26">
       <c r="A170" s="4" t="s">
         <v>176</v>
       </c>
@@ -7042,7 +7375,7 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:26">
       <c r="A171" s="4" t="s">
         <v>177</v>
       </c>
@@ -7074,7 +7407,7 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:26">
       <c r="A172" s="4" t="s">
         <v>178</v>
       </c>
@@ -7106,7 +7439,7 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:26">
       <c r="A173" s="4" t="s">
         <v>179</v>
       </c>
@@ -7138,7 +7471,7 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:26">
       <c r="A174" s="4" t="s">
         <v>180</v>
       </c>
@@ -7170,7 +7503,7 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:26">
       <c r="A175" s="4" t="s">
         <v>181</v>
       </c>
@@ -7202,7 +7535,7 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:26">
       <c r="A176" s="4" t="s">
         <v>182</v>
       </c>
@@ -7234,7 +7567,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:26">
       <c r="A177" s="4" t="s">
         <v>183</v>
       </c>
@@ -7266,7 +7599,7 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:26">
       <c r="A178" s="4" t="s">
         <v>184</v>
       </c>
@@ -7298,7 +7631,7 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:26">
       <c r="A179" s="4" t="s">
         <v>185</v>
       </c>
@@ -7332,7 +7665,7 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:26">
       <c r="A180" s="4" t="s">
         <v>187</v>
       </c>
@@ -7364,7 +7697,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:26">
       <c r="A181" s="4" t="s">
         <v>188</v>
       </c>
@@ -7396,7 +7729,7 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:26">
       <c r="A182" s="4" t="s">
         <v>189</v>
       </c>
@@ -7428,7 +7761,7 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:26">
       <c r="A183" s="4" t="s">
         <v>190</v>
       </c>
@@ -7460,7 +7793,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:26">
       <c r="A184" s="4" t="s">
         <v>191</v>
       </c>
@@ -7492,7 +7825,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:26">
       <c r="A185" s="4" t="s">
         <v>192</v>
       </c>
@@ -7524,7 +7857,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:26">
       <c r="A186" s="4" t="s">
         <v>193</v>
       </c>
@@ -7556,7 +7889,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:26">
       <c r="A187" s="4" t="s">
         <v>194</v>
       </c>
@@ -7588,7 +7921,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:26">
       <c r="A188" s="4" t="s">
         <v>195</v>
       </c>
@@ -7620,7 +7953,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:26">
       <c r="A189" s="4" t="s">
         <v>196</v>
       </c>
@@ -7652,7 +7985,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:26">
       <c r="A190" s="4" t="s">
         <v>197</v>
       </c>
@@ -7684,7 +8017,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:26">
       <c r="A191" s="4" t="s">
         <v>198</v>
       </c>
@@ -7716,7 +8049,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:26">
       <c r="A192" s="4" t="s">
         <v>199</v>
       </c>
@@ -7748,7 +8081,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:26">
       <c r="A193" s="4" t="s">
         <v>200</v>
       </c>
@@ -7780,7 +8113,7 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:26">
       <c r="A194" s="4" t="s">
         <v>201</v>
       </c>
@@ -7812,7 +8145,7 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:26">
       <c r="A195" s="4" t="s">
         <v>202</v>
       </c>
@@ -7844,7 +8177,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:26">
       <c r="A196" s="4" t="s">
         <v>203</v>
       </c>
@@ -7876,7 +8209,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:26">
       <c r="A197" s="4" t="s">
         <v>204</v>
       </c>
@@ -7908,7 +8241,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:26">
       <c r="A198" s="4" t="s">
         <v>205</v>
       </c>
@@ -7940,7 +8273,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:26">
       <c r="A199" s="4" t="s">
         <v>206</v>
       </c>
@@ -7972,7 +8305,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:26">
       <c r="A200" s="4" t="s">
         <v>207</v>
       </c>
@@ -8004,7 +8337,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:26">
       <c r="A201" s="4" t="s">
         <v>208</v>
       </c>
@@ -8036,7 +8369,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:26">
       <c r="A202" s="4" t="s">
         <v>209</v>
       </c>
@@ -8068,7 +8401,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:26">
       <c r="A203" s="4" t="s">
         <v>210</v>
       </c>
@@ -8100,7 +8433,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:26">
       <c r="A204" s="4" t="s">
         <v>211</v>
       </c>
@@ -8132,7 +8465,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:26">
       <c r="A205" s="4" t="s">
         <v>212</v>
       </c>
@@ -8164,7 +8497,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:26">
       <c r="A206" s="4" t="s">
         <v>213</v>
       </c>
@@ -8196,7 +8529,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:26">
       <c r="A207" s="4" t="s">
         <v>214</v>
       </c>
@@ -8228,7 +8561,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:26">
       <c r="A208" s="4" t="s">
         <v>215</v>
       </c>
@@ -8260,7 +8593,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:26">
       <c r="A209" s="4" t="s">
         <v>216</v>
       </c>
@@ -8292,7 +8625,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:26">
       <c r="A210" s="4" t="s">
         <v>217</v>
       </c>
@@ -8324,7 +8657,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:26">
       <c r="A211" s="4" t="s">
         <v>218</v>
       </c>
@@ -8356,7 +8689,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:26" ht="42">
       <c r="A212" s="4" t="s">
         <v>219</v>
       </c>
@@ -8390,7 +8723,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:26">
       <c r="A213" s="4" t="s">
         <v>221</v>
       </c>
@@ -8422,7 +8755,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:26">
       <c r="A214" s="4" t="s">
         <v>222</v>
       </c>
@@ -8456,7 +8789,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:26">
       <c r="A215" s="4" t="s">
         <v>224</v>
       </c>
@@ -8488,7 +8821,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:26">
       <c r="A216" s="4" t="s">
         <v>225</v>
       </c>
@@ -8520,7 +8853,7 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:26" ht="70">
       <c r="A217" s="4" t="s">
         <v>226</v>
       </c>
@@ -8554,7 +8887,7 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:26">
       <c r="A218" s="4" t="s">
         <v>228</v>
       </c>
@@ -8586,7 +8919,7 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:26" ht="28">
       <c r="A219" s="4" t="s">
         <v>229</v>
       </c>
@@ -8620,7 +8953,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:26" ht="56">
       <c r="A220" s="4" t="s">
         <v>231</v>
       </c>
@@ -8654,7 +8987,7 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:26" ht="42">
       <c r="A221" s="4" t="s">
         <v>233</v>
       </c>
@@ -8688,7 +9021,7 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:26">
       <c r="A222" s="4" t="s">
         <v>235</v>
       </c>
@@ -8720,7 +9053,7 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:26">
       <c r="A223" s="4" t="s">
         <v>236</v>
       </c>
@@ -8754,7 +9087,7 @@
       <c r="Y223" s="4"/>
       <c r="Z223" s="4"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:26" ht="28">
       <c r="A224" s="4" t="s">
         <v>238</v>
       </c>
@@ -8788,7 +9121,7 @@
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:26">
       <c r="A225" s="4" t="s">
         <v>240</v>
       </c>
@@ -8820,7 +9153,7 @@
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:26">
       <c r="A226" s="4" t="s">
         <v>241</v>
       </c>
@@ -8852,7 +9185,7 @@
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:26">
       <c r="A227" s="4" t="s">
         <v>242</v>
       </c>
@@ -8884,7 +9217,7 @@
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:26" ht="42">
       <c r="A228" s="4" t="s">
         <v>243</v>
       </c>
@@ -8918,7 +9251,7 @@
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:26" ht="84">
       <c r="A229" s="4" t="s">
         <v>245</v>
       </c>
@@ -8952,7 +9285,7 @@
       <c r="Y229" s="4"/>
       <c r="Z229" s="4"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:26">
       <c r="A230" s="4" t="s">
         <v>247</v>
       </c>
@@ -8984,7 +9317,7 @@
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:26">
       <c r="A231" s="4" t="s">
         <v>248</v>
       </c>
@@ -9016,7 +9349,7 @@
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:26">
       <c r="A232" s="4" t="s">
         <v>249</v>
       </c>
@@ -9048,7 +9381,7 @@
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:26">
       <c r="A233" s="4" t="s">
         <v>250</v>
       </c>
@@ -9080,7 +9413,7 @@
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:26">
       <c r="A234" s="4" t="s">
         <v>251</v>
       </c>
@@ -9112,7 +9445,7 @@
       <c r="Y234" s="4"/>
       <c r="Z234" s="4"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:26">
       <c r="A235" s="4" t="s">
         <v>252</v>
       </c>
@@ -9144,7 +9477,7 @@
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:26">
       <c r="A236" s="4" t="s">
         <v>253</v>
       </c>
@@ -9176,7 +9509,7 @@
       <c r="Y236" s="4"/>
       <c r="Z236" s="4"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:26">
       <c r="A237" s="4" t="s">
         <v>254</v>
       </c>
@@ -9208,7 +9541,7 @@
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:26">
       <c r="A238" s="4" t="s">
         <v>255</v>
       </c>
@@ -9240,7 +9573,7 @@
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:26">
       <c r="A239" s="4" t="s">
         <v>256</v>
       </c>
@@ -9272,7 +9605,7 @@
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:26">
       <c r="A240" s="4" t="s">
         <v>257</v>
       </c>
@@ -9304,7 +9637,7 @@
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:26">
       <c r="A241" s="4" t="s">
         <v>258</v>
       </c>
@@ -9336,7 +9669,7 @@
       <c r="Y241" s="4"/>
       <c r="Z241" s="4"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:26">
       <c r="A242" s="9" t="s">
         <v>259</v>
       </c>
@@ -9368,7 +9701,7 @@
       <c r="Y242" s="9"/>
       <c r="Z242" s="9"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:26">
       <c r="A243" s="9" t="s">
         <v>260</v>
       </c>
@@ -9400,7 +9733,7 @@
       <c r="Y243" s="9"/>
       <c r="Z243" s="9"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:26">
       <c r="A244" s="9" t="s">
         <v>261</v>
       </c>
@@ -9432,7 +9765,7 @@
       <c r="Y244" s="9"/>
       <c r="Z244" s="9"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:26">
       <c r="A245" s="9" t="s">
         <v>262</v>
       </c>
@@ -9442,7 +9775,9 @@
       <c r="C245" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D245" s="12"/>
+      <c r="D245" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
@@ -9466,7 +9801,7 @@
       <c r="Y245" s="9"/>
       <c r="Z245" s="9"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:26" ht="98">
       <c r="A246" s="9" t="s">
         <v>264</v>
       </c>
@@ -9476,7 +9811,9 @@
       <c r="C246" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D246" s="12"/>
+      <c r="D246" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
@@ -9500,7 +9837,7 @@
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:26">
       <c r="A247" s="9" t="s">
         <v>266</v>
       </c>
@@ -9532,7 +9869,7 @@
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:26" ht="70">
       <c r="A248" s="9" t="s">
         <v>267</v>
       </c>
@@ -9542,7 +9879,9 @@
       <c r="C248" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D248" s="12"/>
+      <c r="D248" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
@@ -9566,7 +9905,7 @@
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:26">
       <c r="A249" s="9" t="s">
         <v>269</v>
       </c>
@@ -9598,7 +9937,7 @@
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:26">
       <c r="A250" s="9" t="s">
         <v>270</v>
       </c>
@@ -9630,7 +9969,7 @@
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:26">
       <c r="A251" s="14" t="s">
         <v>271</v>
       </c>
@@ -9662,7 +10001,7 @@
       <c r="Y251" s="14"/>
       <c r="Z251" s="14"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:26">
       <c r="A252" s="9" t="s">
         <v>272</v>
       </c>
@@ -9696,7 +10035,7 @@
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:26">
       <c r="A253" s="9" t="s">
         <v>274</v>
       </c>
@@ -9730,7 +10069,7 @@
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:26">
       <c r="A254" s="4" t="s">
         <v>276</v>
       </c>
@@ -9762,7 +10101,7 @@
       <c r="Y254" s="4"/>
       <c r="Z254" s="4"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:26">
       <c r="A255" s="4" t="s">
         <v>277</v>
       </c>
@@ -9794,7 +10133,7 @@
       <c r="Y255" s="4"/>
       <c r="Z255" s="4"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:26" ht="42">
       <c r="A256" s="4" t="s">
         <v>278</v>
       </c>
@@ -9830,7 +10169,7 @@
       <c r="Y256" s="4"/>
       <c r="Z256" s="4"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:26">
       <c r="A257" s="4" t="s">
         <v>280</v>
       </c>
@@ -9862,7 +10201,7 @@
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:26">
       <c r="A258" s="4" t="s">
         <v>281</v>
       </c>
@@ -9894,7 +10233,7 @@
       <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:26">
       <c r="A259" s="4" t="s">
         <v>282</v>
       </c>
@@ -9926,7 +10265,7 @@
       <c r="Y259" s="4"/>
       <c r="Z259" s="4"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:26">
       <c r="A260" s="4" t="s">
         <v>283</v>
       </c>
@@ -9958,7 +10297,7 @@
       <c r="Y260" s="4"/>
       <c r="Z260" s="4"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:26" ht="98">
       <c r="A261" s="4" t="s">
         <v>284</v>
       </c>
@@ -9994,7 +10333,7 @@
       <c r="Y261" s="4"/>
       <c r="Z261" s="4"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:26">
       <c r="A262" s="4" t="s">
         <v>286</v>
       </c>
@@ -10026,7 +10365,7 @@
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:26">
       <c r="A263" s="4" t="s">
         <v>287</v>
       </c>
@@ -10058,7 +10397,7 @@
       <c r="Y263" s="4"/>
       <c r="Z263" s="4"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:26">
       <c r="A264" s="4" t="s">
         <v>288</v>
       </c>
@@ -10090,7 +10429,7 @@
       <c r="Y264" s="4"/>
       <c r="Z264" s="4"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:26" ht="56">
       <c r="A265" s="4" t="s">
         <v>289</v>
       </c>
@@ -10126,7 +10465,7 @@
       <c r="Y265" s="4"/>
       <c r="Z265" s="4"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:26">
       <c r="A266" s="4" t="s">
         <v>291</v>
       </c>
@@ -10158,7 +10497,7 @@
       <c r="Y266" s="4"/>
       <c r="Z266" s="4"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:26">
       <c r="A267" s="4" t="s">
         <v>292</v>
       </c>
@@ -10190,7 +10529,7 @@
       <c r="Y267" s="4"/>
       <c r="Z267" s="4"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:26" ht="42">
       <c r="A268" s="4" t="s">
         <v>293</v>
       </c>
@@ -10226,7 +10565,7 @@
       <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:26">
       <c r="A269" s="4" t="s">
         <v>295</v>
       </c>
@@ -10258,7 +10597,7 @@
       <c r="Y269" s="4"/>
       <c r="Z269" s="4"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:26">
       <c r="A270" s="4" t="s">
         <v>296</v>
       </c>
@@ -10290,7 +10629,7 @@
       <c r="Y270" s="4"/>
       <c r="Z270" s="4"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:26">
       <c r="A271" s="4" t="s">
         <v>297</v>
       </c>
@@ -10322,7 +10661,7 @@
       <c r="Y271" s="4"/>
       <c r="Z271" s="4"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:26">
       <c r="A272" s="4" t="s">
         <v>298</v>
       </c>
@@ -10354,7 +10693,7 @@
       <c r="Y272" s="4"/>
       <c r="Z272" s="4"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:26">
       <c r="A273" s="4" t="s">
         <v>299</v>
       </c>
@@ -10386,7 +10725,7 @@
       <c r="Y273" s="4"/>
       <c r="Z273" s="4"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:26">
       <c r="A274" s="4" t="s">
         <v>300</v>
       </c>
@@ -10418,7 +10757,7 @@
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:26">
       <c r="A275" s="4" t="s">
         <v>301</v>
       </c>
@@ -10450,7 +10789,7 @@
       <c r="Y275" s="4"/>
       <c r="Z275" s="4"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:26" ht="56">
       <c r="A276" s="4" t="s">
         <v>302</v>
       </c>
@@ -10486,7 +10825,7 @@
       <c r="Y276" s="4"/>
       <c r="Z276" s="4"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:26">
       <c r="A277" s="4" t="s">
         <v>305</v>
       </c>
@@ -10518,7 +10857,7 @@
       <c r="Y277" s="4"/>
       <c r="Z277" s="4"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:26">
       <c r="A278" s="4" t="s">
         <v>306</v>
       </c>
@@ -10550,7 +10889,7 @@
       <c r="Y278" s="4"/>
       <c r="Z278" s="4"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:26" ht="28">
       <c r="A279" s="4" t="s">
         <v>307</v>
       </c>
@@ -10586,7 +10925,7 @@
       <c r="Y279" s="4"/>
       <c r="Z279" s="4"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:26">
       <c r="A280" s="4" t="s">
         <v>309</v>
       </c>
@@ -10618,7 +10957,7 @@
       <c r="Y280" s="4"/>
       <c r="Z280" s="4"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:26">
       <c r="A281" s="4" t="s">
         <v>310</v>
       </c>
@@ -10650,7 +10989,7 @@
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:26">
       <c r="A282" s="4" t="s">
         <v>311</v>
       </c>
@@ -10682,7 +11021,7 @@
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:26">
       <c r="A283" s="4" t="s">
         <v>312</v>
       </c>
@@ -10714,7 +11053,7 @@
       <c r="Y283" s="4"/>
       <c r="Z283" s="4"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:26">
       <c r="A284" s="4" t="s">
         <v>313</v>
       </c>
@@ -10746,7 +11085,7 @@
       <c r="Y284" s="4"/>
       <c r="Z284" s="4"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:26" ht="56">
       <c r="A285" s="4" t="s">
         <v>314</v>
       </c>
@@ -10782,7 +11121,7 @@
       <c r="Y285" s="4"/>
       <c r="Z285" s="4"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:26" ht="70">
       <c r="A286" s="4" t="s">
         <v>316</v>
       </c>
@@ -10818,7 +11157,7 @@
       <c r="Y286" s="4"/>
       <c r="Z286" s="4"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:26">
       <c r="A287" s="4" t="s">
         <v>318</v>
       </c>
@@ -10850,7 +11189,7 @@
       <c r="Y287" s="4"/>
       <c r="Z287" s="4"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:26">
       <c r="A288" s="4" t="s">
         <v>319</v>
       </c>
@@ -10882,7 +11221,7 @@
       <c r="Y288" s="4"/>
       <c r="Z288" s="4"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:26" ht="70">
       <c r="A289" s="4" t="s">
         <v>320</v>
       </c>
@@ -10918,7 +11257,7 @@
       <c r="Y289" s="4"/>
       <c r="Z289" s="4"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:26">
       <c r="A290" s="4" t="s">
         <v>322</v>
       </c>
@@ -10954,7 +11293,7 @@
       <c r="Y290" s="4"/>
       <c r="Z290" s="4"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:26">
       <c r="A291" s="4" t="s">
         <v>324</v>
       </c>
@@ -10986,7 +11325,7 @@
       <c r="Y291" s="4"/>
       <c r="Z291" s="4"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:26">
       <c r="A292" s="4" t="s">
         <v>325</v>
       </c>
@@ -11018,7 +11357,7 @@
       <c r="Y292" s="4"/>
       <c r="Z292" s="4"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:26">
       <c r="A293" s="4" t="s">
         <v>326</v>
       </c>
@@ -11050,7 +11389,7 @@
       <c r="Y293" s="4"/>
       <c r="Z293" s="4"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:26">
       <c r="A294" s="4" t="s">
         <v>327</v>
       </c>
@@ -11082,7 +11421,7 @@
       <c r="Y294" s="4"/>
       <c r="Z294" s="4"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:26">
       <c r="A295" s="4" t="s">
         <v>328</v>
       </c>
@@ -11114,7 +11453,7 @@
       <c r="Y295" s="4"/>
       <c r="Z295" s="4"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:26">
       <c r="A296" s="4" t="s">
         <v>329</v>
       </c>
@@ -11146,7 +11485,7 @@
       <c r="Y296" s="4"/>
       <c r="Z296" s="4"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:26">
       <c r="A297" s="4" t="s">
         <v>330</v>
       </c>
@@ -11178,7 +11517,7 @@
       <c r="Y297" s="4"/>
       <c r="Z297" s="4"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:26">
       <c r="A298" s="4" t="s">
         <v>331</v>
       </c>
@@ -11210,7 +11549,7 @@
       <c r="Y298" s="4"/>
       <c r="Z298" s="4"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:26">
       <c r="A299" s="4" t="s">
         <v>332</v>
       </c>
@@ -11242,7 +11581,7 @@
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:26">
       <c r="A300" s="4" t="s">
         <v>333</v>
       </c>
@@ -11274,7 +11613,7 @@
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:26">
       <c r="A301" s="4" t="s">
         <v>334</v>
       </c>
@@ -11306,7 +11645,7 @@
       <c r="Y301" s="4"/>
       <c r="Z301" s="4"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:26">
       <c r="A302" s="4" t="s">
         <v>335</v>
       </c>
@@ -11338,7 +11677,7 @@
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:26">
       <c r="A303" s="4" t="s">
         <v>336</v>
       </c>
@@ -11370,7 +11709,7 @@
       <c r="Y303" s="4"/>
       <c r="Z303" s="4"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:26">
       <c r="A304" s="4" t="s">
         <v>337</v>
       </c>
@@ -11402,7 +11741,7 @@
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:26">
       <c r="A305" s="4" t="s">
         <v>338</v>
       </c>
@@ -11434,7 +11773,7 @@
       <c r="Y305" s="4"/>
       <c r="Z305" s="4"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:26" ht="28">
       <c r="A306" s="4" t="s">
         <v>339</v>
       </c>
@@ -11470,7 +11809,7 @@
       <c r="Y306" s="4"/>
       <c r="Z306" s="4"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:26">
       <c r="A307" s="4" t="s">
         <v>342</v>
       </c>
@@ -11502,7 +11841,7 @@
       <c r="Y307" s="4"/>
       <c r="Z307" s="4"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:26">
       <c r="A308" s="4" t="s">
         <v>343</v>
       </c>
@@ -11534,7 +11873,7 @@
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:26">
       <c r="A309" s="4" t="s">
         <v>344</v>
       </c>
@@ -11566,7 +11905,7 @@
       <c r="Y309" s="4"/>
       <c r="Z309" s="4"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:26">
       <c r="A310" s="4" t="s">
         <v>345</v>
       </c>
@@ -11598,7 +11937,7 @@
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:26">
       <c r="A311" s="4" t="s">
         <v>346</v>
       </c>
@@ -11630,7 +11969,7 @@
       <c r="Y311" s="4"/>
       <c r="Z311" s="4"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:26">
       <c r="A312" s="4" t="s">
         <v>347</v>
       </c>
@@ -11662,7 +12001,7 @@
       <c r="Y312" s="4"/>
       <c r="Z312" s="4"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:26">
       <c r="A313" s="4" t="s">
         <v>348</v>
       </c>
@@ -11694,7 +12033,7 @@
       <c r="Y313" s="4"/>
       <c r="Z313" s="4"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:26">
       <c r="A314" s="4" t="s">
         <v>349</v>
       </c>
@@ -11726,7 +12065,7 @@
       <c r="Y314" s="4"/>
       <c r="Z314" s="4"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:26" ht="28">
       <c r="A315" s="4" t="s">
         <v>350</v>
       </c>
@@ -11762,7 +12101,7 @@
       <c r="Y315" s="4"/>
       <c r="Z315" s="4"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:26" ht="56">
       <c r="A316" s="4" t="s">
         <v>352</v>
       </c>
@@ -11798,7 +12137,7 @@
       <c r="Y316" s="4"/>
       <c r="Z316" s="4"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:26">
       <c r="A317" s="4" t="s">
         <v>354</v>
       </c>
@@ -11834,7 +12173,7 @@
       <c r="Y317" s="4"/>
       <c r="Z317" s="4"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:26">
       <c r="A318" s="4" t="s">
         <v>356</v>
       </c>
@@ -11866,7 +12205,7 @@
       <c r="Y318" s="4"/>
       <c r="Z318" s="4"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:26">
       <c r="A319" s="4" t="s">
         <v>357</v>
       </c>
@@ -11898,7 +12237,7 @@
       <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:26">
       <c r="A320" s="4" t="s">
         <v>358</v>
       </c>
@@ -11930,7 +12269,7 @@
       <c r="Y320" s="4"/>
       <c r="Z320" s="4"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:26" ht="42">
       <c r="A321" s="4" t="s">
         <v>359</v>
       </c>
@@ -11966,7 +12305,7 @@
       <c r="Y321" s="4"/>
       <c r="Z321" s="4"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:26">
       <c r="A322" s="4" t="s">
         <v>361</v>
       </c>
@@ -11998,7 +12337,7 @@
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:26" ht="196">
       <c r="A323" s="4" t="s">
         <v>362</v>
       </c>
@@ -12034,7 +12373,7 @@
       <c r="Y323" s="4"/>
       <c r="Z323" s="4"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:26">
       <c r="A324" s="4" t="s">
         <v>364</v>
       </c>
@@ -12066,7 +12405,7 @@
       <c r="Y324" s="4"/>
       <c r="Z324" s="4"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:26">
       <c r="A325" s="4" t="s">
         <v>365</v>
       </c>
@@ -12098,7 +12437,7 @@
       <c r="Y325" s="4"/>
       <c r="Z325" s="4"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:26" ht="70">
       <c r="A326" s="4" t="s">
         <v>366</v>
       </c>
@@ -12134,7 +12473,7 @@
       <c r="Y326" s="4"/>
       <c r="Z326" s="4"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:26">
       <c r="A327" s="4" t="s">
         <v>369</v>
       </c>
@@ -12166,7 +12505,7 @@
       <c r="Y327" s="4"/>
       <c r="Z327" s="4"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:26">
       <c r="A328" s="4" t="s">
         <v>370</v>
       </c>
@@ -12198,7 +12537,7 @@
       <c r="Y328" s="4"/>
       <c r="Z328" s="4"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:26" ht="28">
       <c r="A329" s="4" t="s">
         <v>371</v>
       </c>
@@ -12234,7 +12573,7 @@
       <c r="Y329" s="4"/>
       <c r="Z329" s="4"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:26">
       <c r="A330" s="4" t="s">
         <v>373</v>
       </c>
@@ -12266,7 +12605,7 @@
       <c r="Y330" s="4"/>
       <c r="Z330" s="4"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:26">
       <c r="A331" s="4" t="s">
         <v>374</v>
       </c>
@@ -12298,7 +12637,7 @@
       <c r="Y331" s="4"/>
       <c r="Z331" s="4"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:26">
       <c r="A332" s="4" t="s">
         <v>375</v>
       </c>
@@ -12330,7 +12669,7 @@
       <c r="Y332" s="4"/>
       <c r="Z332" s="4"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:26">
       <c r="A333" s="4" t="s">
         <v>376</v>
       </c>
@@ -12362,7 +12701,7 @@
       <c r="Y333" s="4"/>
       <c r="Z333" s="4"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:26">
       <c r="A334" s="4" t="s">
         <v>377</v>
       </c>
@@ -12394,7 +12733,7 @@
       <c r="Y334" s="4"/>
       <c r="Z334" s="4"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:26">
       <c r="A335" s="4" t="s">
         <v>378</v>
       </c>
@@ -12426,7 +12765,7 @@
       <c r="Y335" s="4"/>
       <c r="Z335" s="4"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:26" ht="28">
       <c r="A336" s="4" t="s">
         <v>379</v>
       </c>
@@ -12462,7 +12801,7 @@
       <c r="Y336" s="4"/>
       <c r="Z336" s="4"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:26">
       <c r="A337" s="4" t="s">
         <v>381</v>
       </c>
@@ -12494,7 +12833,7 @@
       <c r="Y337" s="4"/>
       <c r="Z337" s="4"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:26">
       <c r="A338" s="4" t="s">
         <v>382</v>
       </c>
@@ -12526,7 +12865,7 @@
       <c r="Y338" s="4"/>
       <c r="Z338" s="4"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:26">
       <c r="A339" s="4" t="s">
         <v>383</v>
       </c>
@@ -12558,7 +12897,7 @@
       <c r="Y339" s="4"/>
       <c r="Z339" s="4"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:26">
       <c r="A340" s="4" t="s">
         <v>384</v>
       </c>
@@ -12590,7 +12929,7 @@
       <c r="Y340" s="4"/>
       <c r="Z340" s="4"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:26">
       <c r="A341" s="4" t="s">
         <v>385</v>
       </c>
@@ -12622,7 +12961,7 @@
       <c r="Y341" s="4"/>
       <c r="Z341" s="4"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:26">
       <c r="A342" s="4" t="s">
         <v>386</v>
       </c>
@@ -12654,7 +12993,7 @@
       <c r="Y342" s="4"/>
       <c r="Z342" s="4"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:26">
       <c r="A343" s="4" t="s">
         <v>387</v>
       </c>
@@ -12686,7 +13025,7 @@
       <c r="Y343" s="4"/>
       <c r="Z343" s="4"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:26">
       <c r="A344" s="4" t="s">
         <v>388</v>
       </c>
@@ -12718,7 +13057,7 @@
       <c r="Y344" s="4"/>
       <c r="Z344" s="4"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:26">
       <c r="A345" s="4" t="s">
         <v>389</v>
       </c>
@@ -12750,7 +13089,7 @@
       <c r="Y345" s="4"/>
       <c r="Z345" s="4"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:26">
       <c r="A346" s="4" t="s">
         <v>390</v>
       </c>
@@ -12782,7 +13121,7 @@
       <c r="Y346" s="4"/>
       <c r="Z346" s="4"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:26">
       <c r="A347" s="4" t="s">
         <v>391</v>
       </c>
@@ -12814,7 +13153,7 @@
       <c r="Y347" s="4"/>
       <c r="Z347" s="4"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:26">
       <c r="A348" s="4" t="s">
         <v>392</v>
       </c>
@@ -12846,7 +13185,7 @@
       <c r="Y348" s="4"/>
       <c r="Z348" s="4"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:26">
       <c r="A349" s="4" t="s">
         <v>393</v>
       </c>
@@ -12878,7 +13217,7 @@
       <c r="Y349" s="4"/>
       <c r="Z349" s="4"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:26">
       <c r="A350" s="4" t="s">
         <v>394</v>
       </c>
@@ -12910,7 +13249,7 @@
       <c r="Y350" s="4"/>
       <c r="Z350" s="4"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:26">
       <c r="A351" s="4" t="s">
         <v>395</v>
       </c>
@@ -12942,7 +13281,7 @@
       <c r="Y351" s="4"/>
       <c r="Z351" s="4"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:26">
       <c r="A352" s="4" t="s">
         <v>396</v>
       </c>
@@ -12974,7 +13313,7 @@
       <c r="Y352" s="4"/>
       <c r="Z352" s="4"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:26">
       <c r="A353" s="4" t="s">
         <v>397</v>
       </c>
@@ -13006,7 +13345,7 @@
       <c r="Y353" s="4"/>
       <c r="Z353" s="4"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:26">
       <c r="A354" s="4" t="s">
         <v>398</v>
       </c>
@@ -13038,7 +13377,7 @@
       <c r="Y354" s="4"/>
       <c r="Z354" s="4"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:26">
       <c r="A355" s="4" t="s">
         <v>399</v>
       </c>
@@ -13070,7 +13409,7 @@
       <c r="Y355" s="4"/>
       <c r="Z355" s="4"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:26">
       <c r="A356" s="4" t="s">
         <v>400</v>
       </c>
@@ -13102,7 +13441,7 @@
       <c r="Y356" s="4"/>
       <c r="Z356" s="4"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:26">
       <c r="A357" s="4" t="s">
         <v>401</v>
       </c>
@@ -13134,7 +13473,7 @@
       <c r="Y357" s="4"/>
       <c r="Z357" s="4"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:26">
       <c r="A358" s="4" t="s">
         <v>402</v>
       </c>
@@ -13166,7 +13505,7 @@
       <c r="Y358" s="4"/>
       <c r="Z358" s="4"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:26">
       <c r="A359" s="4" t="s">
         <v>403</v>
       </c>
@@ -13200,7 +13539,7 @@
       <c r="Y359" s="4"/>
       <c r="Z359" s="4"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:26">
       <c r="A360" s="4" t="s">
         <v>404</v>
       </c>
@@ -13236,7 +13575,7 @@
       <c r="Y360" s="4"/>
       <c r="Z360" s="4"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:26">
       <c r="A361" s="4" t="s">
         <v>407</v>
       </c>
@@ -13268,7 +13607,7 @@
       <c r="Y361" s="4"/>
       <c r="Z361" s="4"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:26">
       <c r="A362" s="4" t="s">
         <v>408</v>
       </c>
@@ -13300,7 +13639,7 @@
       <c r="Y362" s="4"/>
       <c r="Z362" s="4"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:26">
       <c r="A363" s="4" t="s">
         <v>409</v>
       </c>
@@ -13332,7 +13671,7 @@
       <c r="Y363" s="4"/>
       <c r="Z363" s="4"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:26">
       <c r="A364" s="4" t="s">
         <v>410</v>
       </c>
@@ -13364,7 +13703,7 @@
       <c r="Y364" s="4"/>
       <c r="Z364" s="4"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:26">
       <c r="A365" s="4" t="s">
         <v>411</v>
       </c>
@@ -13396,7 +13735,7 @@
       <c r="Y365" s="4"/>
       <c r="Z365" s="4"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:26">
       <c r="A366" s="4" t="s">
         <v>412</v>
       </c>
@@ -13428,7 +13767,7 @@
       <c r="Y366" s="4"/>
       <c r="Z366" s="4"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:26">
       <c r="A367" s="4" t="s">
         <v>413</v>
       </c>
@@ -13460,7 +13799,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="4"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:26" ht="56">
       <c r="A368" s="4" t="s">
         <v>414</v>
       </c>
@@ -13496,7 +13835,7 @@
       <c r="Y368" s="4"/>
       <c r="Z368" s="4"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:26">
       <c r="A369" s="4" t="s">
         <v>417</v>
       </c>
@@ -13532,7 +13871,7 @@
       <c r="Y369" s="4"/>
       <c r="Z369" s="4"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:26">
       <c r="A370" s="4" t="s">
         <v>420</v>
       </c>
@@ -13564,7 +13903,7 @@
       <c r="Y370" s="4"/>
       <c r="Z370" s="4"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:26">
       <c r="A371" s="4" t="s">
         <v>421</v>
       </c>
@@ -13596,7 +13935,7 @@
       <c r="Y371" s="4"/>
       <c r="Z371" s="4"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:26">
       <c r="A372" s="4" t="s">
         <v>422</v>
       </c>
@@ -13628,7 +13967,7 @@
       <c r="Y372" s="4"/>
       <c r="Z372" s="4"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:26">
       <c r="A373" s="4" t="s">
         <v>423</v>
       </c>
@@ -13660,7 +13999,7 @@
       <c r="Y373" s="4"/>
       <c r="Z373" s="4"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:26">
       <c r="A374" s="4" t="s">
         <v>424</v>
       </c>
@@ -13692,7 +14031,7 @@
       <c r="Y374" s="4"/>
       <c r="Z374" s="4"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:26">
       <c r="A375" s="4" t="s">
         <v>425</v>
       </c>
@@ -13724,7 +14063,7 @@
       <c r="Y375" s="4"/>
       <c r="Z375" s="4"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:26">
       <c r="A376" s="4" t="s">
         <v>426</v>
       </c>
@@ -13760,7 +14099,7 @@
       <c r="Y376" s="4"/>
       <c r="Z376" s="4"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:26">
       <c r="A377" s="4" t="s">
         <v>428</v>
       </c>
@@ -13792,7 +14131,7 @@
       <c r="Y377" s="4"/>
       <c r="Z377" s="4"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:26">
       <c r="A378" s="4" t="s">
         <v>429</v>
       </c>
@@ -13824,7 +14163,7 @@
       <c r="Y378" s="4"/>
       <c r="Z378" s="4"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:26">
       <c r="A379" s="4" t="s">
         <v>430</v>
       </c>
@@ -13856,7 +14195,7 @@
       <c r="Y379" s="4"/>
       <c r="Z379" s="4"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:26">
       <c r="A380" s="4" t="s">
         <v>431</v>
       </c>
@@ -13888,7 +14227,7 @@
       <c r="Y380" s="4"/>
       <c r="Z380" s="4"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:26">
       <c r="A381" s="4" t="s">
         <v>432</v>
       </c>
@@ -13920,7 +14259,7 @@
       <c r="Y381" s="4"/>
       <c r="Z381" s="4"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:26">
       <c r="A382" s="4" t="s">
         <v>433</v>
       </c>
@@ -13952,7 +14291,7 @@
       <c r="Y382" s="4"/>
       <c r="Z382" s="4"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:26">
       <c r="A383" s="4" t="s">
         <v>434</v>
       </c>
@@ -13984,7 +14323,7 @@
       <c r="Y383" s="4"/>
       <c r="Z383" s="4"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:26">
       <c r="A384" s="4" t="s">
         <v>435</v>
       </c>
@@ -14016,7 +14355,7 @@
       <c r="Y384" s="4"/>
       <c r="Z384" s="4"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:26">
       <c r="A385" s="4" t="s">
         <v>436</v>
       </c>
@@ -14048,7 +14387,7 @@
       <c r="Y385" s="4"/>
       <c r="Z385" s="4"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:26">
       <c r="A386" s="4" t="s">
         <v>437</v>
       </c>
@@ -14080,7 +14419,7 @@
       <c r="Y386" s="4"/>
       <c r="Z386" s="4"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:26">
       <c r="A387" s="4" t="s">
         <v>438</v>
       </c>
@@ -14112,7 +14451,7 @@
       <c r="Y387" s="4"/>
       <c r="Z387" s="4"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:26">
       <c r="A388" s="4" t="s">
         <v>439</v>
       </c>
@@ -14144,7 +14483,7 @@
       <c r="Y388" s="4"/>
       <c r="Z388" s="4"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:26">
       <c r="A389" s="4" t="s">
         <v>440</v>
       </c>
@@ -14176,7 +14515,7 @@
       <c r="Y389" s="4"/>
       <c r="Z389" s="4"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:26">
       <c r="A390" s="4" t="s">
         <v>441</v>
       </c>
@@ -14208,7 +14547,7 @@
       <c r="Y390" s="4"/>
       <c r="Z390" s="4"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:26">
       <c r="A391" s="4" t="s">
         <v>442</v>
       </c>
@@ -14240,7 +14579,7 @@
       <c r="Y391" s="4"/>
       <c r="Z391" s="4"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:26">
       <c r="A392" s="4" t="s">
         <v>443</v>
       </c>
@@ -14272,7 +14611,7 @@
       <c r="Y392" s="4"/>
       <c r="Z392" s="4"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:26">
       <c r="A393" s="4" t="s">
         <v>444</v>
       </c>
@@ -14304,7 +14643,7 @@
       <c r="Y393" s="4"/>
       <c r="Z393" s="4"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:26">
       <c r="A394" s="4" t="s">
         <v>445</v>
       </c>
@@ -14336,7 +14675,7 @@
       <c r="Y394" s="4"/>
       <c r="Z394" s="4"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:26" ht="42">
       <c r="A395" s="4" t="s">
         <v>446</v>
       </c>
@@ -14372,7 +14711,7 @@
       <c r="Y395" s="4"/>
       <c r="Z395" s="4"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:26">
       <c r="A396" s="4" t="s">
         <v>449</v>
       </c>
@@ -14404,7 +14743,7 @@
       <c r="Y396" s="4"/>
       <c r="Z396" s="4"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:26">
       <c r="A397" s="4" t="s">
         <v>450</v>
       </c>
@@ -14436,7 +14775,7 @@
       <c r="Y397" s="4"/>
       <c r="Z397" s="4"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:26">
       <c r="A398" s="4" t="s">
         <v>451</v>
       </c>
@@ -14468,7 +14807,7 @@
       <c r="Y398" s="4"/>
       <c r="Z398" s="4"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:26" ht="28">
       <c r="A399" s="4" t="s">
         <v>452</v>
       </c>
@@ -14502,7 +14841,7 @@
       <c r="Y399" s="4"/>
       <c r="Z399" s="4"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:26">
       <c r="A400" s="4" t="s">
         <v>454</v>
       </c>
@@ -14534,7 +14873,7 @@
       <c r="Y400" s="4"/>
       <c r="Z400" s="4"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:26">
       <c r="A401" s="4" t="s">
         <v>455</v>
       </c>
@@ -14566,7 +14905,7 @@
       <c r="Y401" s="4"/>
       <c r="Z401" s="4"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:26">
       <c r="A402" s="4" t="s">
         <v>456</v>
       </c>
@@ -14598,7 +14937,7 @@
       <c r="Y402" s="4"/>
       <c r="Z402" s="4"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:26">
       <c r="A403" s="4" t="s">
         <v>457</v>
       </c>
@@ -14630,7 +14969,7 @@
       <c r="Y403" s="4"/>
       <c r="Z403" s="4"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:26">
       <c r="A404" s="4" t="s">
         <v>458</v>
       </c>
@@ -14662,7 +15001,7 @@
       <c r="Y404" s="4"/>
       <c r="Z404" s="4"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:26">
       <c r="A405" s="4" t="s">
         <v>459</v>
       </c>
@@ -14694,7 +15033,7 @@
       <c r="Y405" s="4"/>
       <c r="Z405" s="4"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:26">
       <c r="A406" s="4" t="s">
         <v>460</v>
       </c>
@@ -14726,7 +15065,7 @@
       <c r="Y406" s="4"/>
       <c r="Z406" s="4"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:26">
       <c r="A407" s="4" t="s">
         <v>461</v>
       </c>
@@ -14758,7 +15097,7 @@
       <c r="Y407" s="4"/>
       <c r="Z407" s="4"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:26">
       <c r="A408" s="4" t="s">
         <v>462</v>
       </c>
@@ -14790,7 +15129,7 @@
       <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:26">
       <c r="A409" s="4" t="s">
         <v>463</v>
       </c>
@@ -14824,7 +15163,7 @@
       <c r="Y409" s="4"/>
       <c r="Z409" s="4"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:26">
       <c r="A410" s="4" t="s">
         <v>464</v>
       </c>
@@ -14856,7 +15195,7 @@
       <c r="Y410" s="4"/>
       <c r="Z410" s="4"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:26">
       <c r="A411" s="4" t="s">
         <v>465</v>
       </c>
@@ -14888,7 +15227,7 @@
       <c r="Y411" s="4"/>
       <c r="Z411" s="4"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:26" ht="28">
       <c r="A412" s="4" t="s">
         <v>466</v>
       </c>
@@ -14924,7 +15263,7 @@
       <c r="Y412" s="4"/>
       <c r="Z412" s="4"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:26">
       <c r="A413" s="4" t="s">
         <v>468</v>
       </c>
@@ -14956,7 +15295,7 @@
       <c r="Y413" s="4"/>
       <c r="Z413" s="4"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:26" ht="42">
       <c r="A414" s="4" t="s">
         <v>469</v>
       </c>
@@ -14992,7 +15331,7 @@
       <c r="Y414" s="4"/>
       <c r="Z414" s="4"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:26">
       <c r="A415" s="4" t="s">
         <v>471</v>
       </c>
@@ -15024,7 +15363,7 @@
       <c r="Y415" s="4"/>
       <c r="Z415" s="4"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:26">
       <c r="A416" s="4" t="s">
         <v>472</v>
       </c>
@@ -15056,7 +15395,7 @@
       <c r="Y416" s="4"/>
       <c r="Z416" s="4"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:26">
       <c r="A417" s="4" t="s">
         <v>473</v>
       </c>
@@ -15088,7 +15427,7 @@
       <c r="Y417" s="4"/>
       <c r="Z417" s="4"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:26">
       <c r="A418" s="4" t="s">
         <v>474</v>
       </c>
@@ -15120,7 +15459,7 @@
       <c r="Y418" s="4"/>
       <c r="Z418" s="4"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:26">
       <c r="A419" s="4" t="s">
         <v>475</v>
       </c>
@@ -15152,7 +15491,7 @@
       <c r="Y419" s="4"/>
       <c r="Z419" s="4"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:26">
       <c r="A420" s="4" t="s">
         <v>476</v>
       </c>
@@ -15184,7 +15523,7 @@
       <c r="Y420" s="4"/>
       <c r="Z420" s="4"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:26">
       <c r="A421" s="4" t="s">
         <v>477</v>
       </c>
@@ -15216,7 +15555,7 @@
       <c r="Y421" s="4"/>
       <c r="Z421" s="4"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:26">
       <c r="A422" s="4" t="s">
         <v>478</v>
       </c>
@@ -15248,7 +15587,7 @@
       <c r="Y422" s="4"/>
       <c r="Z422" s="4"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:26">
       <c r="A423" s="4" t="s">
         <v>479</v>
       </c>
@@ -15280,7 +15619,7 @@
       <c r="Y423" s="4"/>
       <c r="Z423" s="4"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:26">
       <c r="A424" s="4" t="s">
         <v>480</v>
       </c>
@@ -15312,7 +15651,7 @@
       <c r="Y424" s="4"/>
       <c r="Z424" s="4"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:26">
       <c r="A425" s="4" t="s">
         <v>481</v>
       </c>
@@ -15344,7 +15683,7 @@
       <c r="Y425" s="4"/>
       <c r="Z425" s="4"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:26">
       <c r="A426" s="4" t="s">
         <v>482</v>
       </c>
@@ -15376,7 +15715,7 @@
       <c r="Y426" s="4"/>
       <c r="Z426" s="4"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:26" ht="42">
       <c r="A427" s="4" t="s">
         <v>483</v>
       </c>
@@ -15412,7 +15751,7 @@
       <c r="Y427" s="4"/>
       <c r="Z427" s="4"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:26">
       <c r="A428" s="4" t="s">
         <v>485</v>
       </c>
@@ -15444,7 +15783,7 @@
       <c r="Y428" s="4"/>
       <c r="Z428" s="4"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:26">
       <c r="A429" s="4" t="s">
         <v>486</v>
       </c>
@@ -15476,7 +15815,7 @@
       <c r="Y429" s="4"/>
       <c r="Z429" s="4"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:26">
       <c r="A430" s="4" t="s">
         <v>487</v>
       </c>
@@ -15508,7 +15847,7 @@
       <c r="Y430" s="4"/>
       <c r="Z430" s="4"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:26" ht="70">
       <c r="A431" s="4" t="s">
         <v>488</v>
       </c>
@@ -15544,7 +15883,7 @@
       <c r="Y431" s="4"/>
       <c r="Z431" s="4"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:26">
       <c r="A432" s="4" t="s">
         <v>490</v>
       </c>
@@ -15576,7 +15915,7 @@
       <c r="Y432" s="4"/>
       <c r="Z432" s="4"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:26">
       <c r="A433" s="4" t="s">
         <v>491</v>
       </c>
@@ -15608,7 +15947,7 @@
       <c r="Y433" s="4"/>
       <c r="Z433" s="4"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:26">
       <c r="A434" s="4" t="s">
         <v>492</v>
       </c>
@@ -15640,7 +15979,7 @@
       <c r="Y434" s="4"/>
       <c r="Z434" s="4"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:26">
       <c r="A435" s="4" t="s">
         <v>493</v>
       </c>
@@ -15672,7 +16011,7 @@
       <c r="Y435" s="4"/>
       <c r="Z435" s="4"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:26">
       <c r="A436" s="4" t="s">
         <v>494</v>
       </c>
@@ -15704,7 +16043,7 @@
       <c r="Y436" s="4"/>
       <c r="Z436" s="4"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:26">
       <c r="A437" s="4" t="s">
         <v>495</v>
       </c>
@@ -15736,7 +16075,7 @@
       <c r="Y437" s="4"/>
       <c r="Z437" s="4"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:26">
       <c r="A438" s="4" t="s">
         <v>496</v>
       </c>
@@ -15768,7 +16107,7 @@
       <c r="Y438" s="4"/>
       <c r="Z438" s="4"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:26">
       <c r="A439" s="4" t="s">
         <v>497</v>
       </c>
@@ -15804,7 +16143,7 @@
       <c r="Y439" s="4"/>
       <c r="Z439" s="4"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:26">
       <c r="A440" s="4" t="s">
         <v>499</v>
       </c>
@@ -15836,7 +16175,7 @@
       <c r="Y440" s="4"/>
       <c r="Z440" s="4"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:26" ht="28">
       <c r="A441" s="4" t="s">
         <v>500</v>
       </c>
@@ -15872,7 +16211,7 @@
       <c r="Y441" s="4"/>
       <c r="Z441" s="4"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:26">
       <c r="A442" s="4" t="s">
         <v>502</v>
       </c>
@@ -15904,7 +16243,7 @@
       <c r="Y442" s="4"/>
       <c r="Z442" s="4"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:26">
       <c r="A443" s="4" t="s">
         <v>503</v>
       </c>
@@ -15936,7 +16275,7 @@
       <c r="Y443" s="4"/>
       <c r="Z443" s="4"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:26">
       <c r="A444" s="4" t="s">
         <v>504</v>
       </c>
@@ -15968,7 +16307,7 @@
       <c r="Y444" s="4"/>
       <c r="Z444" s="4"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:26">
       <c r="A445" s="4" t="s">
         <v>505</v>
       </c>
@@ -16000,7 +16339,7 @@
       <c r="Y445" s="4"/>
       <c r="Z445" s="4"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:26">
       <c r="A446" s="4" t="s">
         <v>506</v>
       </c>
@@ -16032,7 +16371,7 @@
       <c r="Y446" s="4"/>
       <c r="Z446" s="4"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:26" ht="28">
       <c r="A447" s="4" t="s">
         <v>507</v>
       </c>
@@ -16068,7 +16407,7 @@
       <c r="Y447" s="4"/>
       <c r="Z447" s="4"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:26">
       <c r="A448" s="4" t="s">
         <v>509</v>
       </c>
@@ -16100,7 +16439,7 @@
       <c r="Y448" s="4"/>
       <c r="Z448" s="4"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:26">
       <c r="A449" s="4" t="s">
         <v>510</v>
       </c>
@@ -16134,7 +16473,7 @@
       <c r="Y449" s="4"/>
       <c r="Z449" s="4"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:26">
       <c r="A450" s="4" t="s">
         <v>511</v>
       </c>
@@ -16170,7 +16509,7 @@
       <c r="Y450" s="4"/>
       <c r="Z450" s="4"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:26">
       <c r="A451" s="4" t="s">
         <v>512</v>
       </c>
@@ -16202,7 +16541,7 @@
       <c r="Y451" s="4"/>
       <c r="Z451" s="4"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:26">
       <c r="A452" s="4" t="s">
         <v>513</v>
       </c>
@@ -16238,7 +16577,7 @@
       <c r="Y452" s="4"/>
       <c r="Z452" s="4"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:26">
       <c r="A453" s="4" t="s">
         <v>514</v>
       </c>
@@ -16270,7 +16609,7 @@
       <c r="Y453" s="4"/>
       <c r="Z453" s="4"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:26" ht="42">
       <c r="A454" s="4" t="s">
         <v>515</v>
       </c>
@@ -16306,7 +16645,7 @@
       <c r="Y454" s="4"/>
       <c r="Z454" s="4"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:26">
       <c r="A455" s="4" t="s">
         <v>517</v>
       </c>
@@ -16338,7 +16677,7 @@
       <c r="Y455" s="4"/>
       <c r="Z455" s="4"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:26" ht="28">
       <c r="A456" s="4" t="s">
         <v>518</v>
       </c>
@@ -16374,7 +16713,7 @@
       <c r="Y456" s="4"/>
       <c r="Z456" s="4"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:26">
       <c r="A457" s="4" t="s">
         <v>520</v>
       </c>
@@ -16406,7 +16745,7 @@
       <c r="Y457" s="4"/>
       <c r="Z457" s="4"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:26">
       <c r="A458" s="4" t="s">
         <v>521</v>
       </c>
@@ -16438,7 +16777,7 @@
       <c r="Y458" s="4"/>
       <c r="Z458" s="4"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:26">
       <c r="A459" s="4" t="s">
         <v>522</v>
       </c>
@@ -16470,7 +16809,7 @@
       <c r="Y459" s="4"/>
       <c r="Z459" s="4"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:26">
       <c r="A460" s="4" t="s">
         <v>523</v>
       </c>
@@ -16502,7 +16841,7 @@
       <c r="Y460" s="4"/>
       <c r="Z460" s="4"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:26">
       <c r="A461" s="4" t="s">
         <v>524</v>
       </c>
@@ -16534,7 +16873,7 @@
       <c r="Y461" s="4"/>
       <c r="Z461" s="4"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:26" ht="28">
       <c r="A462" s="4" t="s">
         <v>525</v>
       </c>
@@ -16570,7 +16909,7 @@
       <c r="Y462" s="4"/>
       <c r="Z462" s="4"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:26" ht="42">
       <c r="A463" s="4" t="s">
         <v>527</v>
       </c>
@@ -16606,7 +16945,7 @@
       <c r="Y463" s="4"/>
       <c r="Z463" s="4"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:26">
       <c r="A464" s="4" t="s">
         <v>529</v>
       </c>
@@ -16638,7 +16977,7 @@
       <c r="Y464" s="4"/>
       <c r="Z464" s="4"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:26" ht="28">
       <c r="A465" s="4" t="s">
         <v>530</v>
       </c>
@@ -16674,7 +17013,7 @@
       <c r="Y465" s="4"/>
       <c r="Z465" s="4"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:26">
       <c r="A466" s="4" t="s">
         <v>532</v>
       </c>
@@ -16706,7 +17045,7 @@
       <c r="Y466" s="4"/>
       <c r="Z466" s="4"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:26">
       <c r="A467" s="4" t="s">
         <v>533</v>
       </c>
@@ -16738,7 +17077,7 @@
       <c r="Y467" s="4"/>
       <c r="Z467" s="4"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:26">
       <c r="A468" s="4" t="s">
         <v>534</v>
       </c>
@@ -16770,7 +17109,7 @@
       <c r="Y468" s="4"/>
       <c r="Z468" s="4"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:26">
       <c r="A469" s="4" t="s">
         <v>535</v>
       </c>
@@ -16802,7 +17141,7 @@
       <c r="Y469" s="4"/>
       <c r="Z469" s="4"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:26">
       <c r="A470" s="4" t="s">
         <v>536</v>
       </c>
@@ -16838,7 +17177,7 @@
       <c r="Y470" s="4"/>
       <c r="Z470" s="4"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:26">
       <c r="A471" s="4" t="s">
         <v>538</v>
       </c>
@@ -16870,7 +17209,7 @@
       <c r="Y471" s="4"/>
       <c r="Z471" s="4"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:26">
       <c r="A472" s="4" t="s">
         <v>539</v>
       </c>
@@ -16902,7 +17241,7 @@
       <c r="Y472" s="4"/>
       <c r="Z472" s="4"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:26">
       <c r="A473" s="4" t="s">
         <v>540</v>
       </c>
@@ -16938,7 +17277,7 @@
       <c r="Y473" s="4"/>
       <c r="Z473" s="4"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:26">
       <c r="A474" s="4" t="s">
         <v>541</v>
       </c>
@@ -16970,7 +17309,7 @@
       <c r="Y474" s="4"/>
       <c r="Z474" s="4"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:26">
       <c r="A475" s="4" t="s">
         <v>542</v>
       </c>
@@ -17002,7 +17341,7 @@
       <c r="Y475" s="4"/>
       <c r="Z475" s="4"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:26">
       <c r="A476" s="4" t="s">
         <v>543</v>
       </c>
@@ -17038,7 +17377,7 @@
       <c r="Y476" s="4"/>
       <c r="Z476" s="4"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:26">
       <c r="A477" s="4" t="s">
         <v>545</v>
       </c>
@@ -17070,7 +17409,7 @@
       <c r="Y477" s="4"/>
       <c r="Z477" s="4"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:26">
       <c r="A478" s="4" t="s">
         <v>546</v>
       </c>
@@ -17102,7 +17441,7 @@
       <c r="Y478" s="4"/>
       <c r="Z478" s="4"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:26">
       <c r="A479" s="4" t="s">
         <v>547</v>
       </c>
@@ -17134,7 +17473,7 @@
       <c r="Y479" s="4"/>
       <c r="Z479" s="4"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:26">
       <c r="A480" s="4" t="s">
         <v>548</v>
       </c>
@@ -17170,7 +17509,7 @@
       <c r="Y480" s="4"/>
       <c r="Z480" s="4"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:26">
       <c r="A481" s="4" t="s">
         <v>549</v>
       </c>
@@ -17206,7 +17545,7 @@
       <c r="Y481" s="4"/>
       <c r="Z481" s="4"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:26">
       <c r="A482" s="4" t="s">
         <v>550</v>
       </c>
@@ -17238,7 +17577,7 @@
       <c r="Y482" s="4"/>
       <c r="Z482" s="4"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:26">
       <c r="A483" s="4" t="s">
         <v>551</v>
       </c>
@@ -17270,7 +17609,7 @@
       <c r="Y483" s="4"/>
       <c r="Z483" s="4"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:26">
       <c r="A484" s="4" t="s">
         <v>552</v>
       </c>
@@ -17302,7 +17641,7 @@
       <c r="Y484" s="4"/>
       <c r="Z484" s="4"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:26">
       <c r="A485" s="4" t="s">
         <v>553</v>
       </c>
@@ -17334,7 +17673,7 @@
       <c r="Y485" s="4"/>
       <c r="Z485" s="4"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:26">
       <c r="A486" s="4" t="s">
         <v>554</v>
       </c>
@@ -17370,7 +17709,7 @@
       <c r="Y486" s="4"/>
       <c r="Z486" s="4"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:26">
       <c r="A487" s="4" t="s">
         <v>555</v>
       </c>
@@ -17402,7 +17741,7 @@
       <c r="Y487" s="4"/>
       <c r="Z487" s="4"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:26">
       <c r="A488" s="4" t="s">
         <v>556</v>
       </c>
@@ -17434,7 +17773,7 @@
       <c r="Y488" s="4"/>
       <c r="Z488" s="4"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:26">
       <c r="A489" s="4" t="s">
         <v>557</v>
       </c>
@@ -17466,7 +17805,7 @@
       <c r="Y489" s="4"/>
       <c r="Z489" s="4"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:26">
       <c r="A490" s="4" t="s">
         <v>558</v>
       </c>
@@ -17498,7 +17837,7 @@
       <c r="Y490" s="4"/>
       <c r="Z490" s="4"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:26">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="5"/>
@@ -17526,7 +17865,7 @@
       <c r="Y491" s="4"/>
       <c r="Z491" s="4"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:26">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="5"/>
@@ -17554,7 +17893,7 @@
       <c r="Y492" s="4"/>
       <c r="Z492" s="4"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:26">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="5"/>
@@ -17582,7 +17921,7 @@
       <c r="Y493" s="4"/>
       <c r="Z493" s="4"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:26">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="5"/>
@@ -17610,7 +17949,7 @@
       <c r="Y494" s="4"/>
       <c r="Z494" s="4"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:26">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="5"/>
@@ -17638,7 +17977,7 @@
       <c r="Y495" s="4"/>
       <c r="Z495" s="4"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:26">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="5"/>
@@ -17666,7 +18005,7 @@
       <c r="Y496" s="4"/>
       <c r="Z496" s="4"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:26">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="5"/>
@@ -17694,7 +18033,7 @@
       <c r="Y497" s="4"/>
       <c r="Z497" s="4"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:26">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="5"/>
@@ -17722,7 +18061,7 @@
       <c r="Y498" s="4"/>
       <c r="Z498" s="4"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:26">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="5"/>
@@ -17750,7 +18089,7 @@
       <c r="Y499" s="4"/>
       <c r="Z499" s="4"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:26">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="5"/>
@@ -17778,7 +18117,7 @@
       <c r="Y500" s="4"/>
       <c r="Z500" s="4"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:26">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="5"/>
@@ -17806,7 +18145,7 @@
       <c r="Y501" s="4"/>
       <c r="Z501" s="4"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:26">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="5"/>
@@ -17834,7 +18173,7 @@
       <c r="Y502" s="4"/>
       <c r="Z502" s="4"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:26">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="5"/>
@@ -17862,7 +18201,7 @@
       <c r="Y503" s="4"/>
       <c r="Z503" s="4"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:26">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="5"/>
@@ -17890,7 +18229,7 @@
       <c r="Y504" s="4"/>
       <c r="Z504" s="4"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:26">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="5"/>
@@ -17918,7 +18257,7 @@
       <c r="Y505" s="4"/>
       <c r="Z505" s="4"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:26">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="5"/>
@@ -17946,7 +18285,7 @@
       <c r="Y506" s="4"/>
       <c r="Z506" s="4"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:26">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="5"/>
@@ -17974,7 +18313,7 @@
       <c r="Y507" s="4"/>
       <c r="Z507" s="4"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:26">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="5"/>
@@ -18002,7 +18341,7 @@
       <c r="Y508" s="4"/>
       <c r="Z508" s="4"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:26">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="5"/>
@@ -18030,7 +18369,7 @@
       <c r="Y509" s="4"/>
       <c r="Z509" s="4"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:26">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="5"/>
@@ -18058,7 +18397,7 @@
       <c r="Y510" s="4"/>
       <c r="Z510" s="4"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:26">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="5"/>
@@ -18086,7 +18425,7 @@
       <c r="Y511" s="4"/>
       <c r="Z511" s="4"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:26">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="5"/>
@@ -18114,7 +18453,7 @@
       <c r="Y512" s="4"/>
       <c r="Z512" s="4"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:26">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="5"/>
@@ -18142,7 +18481,7 @@
       <c r="Y513" s="4"/>
       <c r="Z513" s="4"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:26">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="5"/>
@@ -18170,7 +18509,7 @@
       <c r="Y514" s="4"/>
       <c r="Z514" s="4"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:26">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="5"/>
@@ -18198,7 +18537,7 @@
       <c r="Y515" s="4"/>
       <c r="Z515" s="4"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:26">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="5"/>
@@ -18226,7 +18565,7 @@
       <c r="Y516" s="4"/>
       <c r="Z516" s="4"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:26">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="5"/>
@@ -18254,7 +18593,7 @@
       <c r="Y517" s="4"/>
       <c r="Z517" s="4"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:26">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="5"/>
@@ -18282,7 +18621,7 @@
       <c r="Y518" s="4"/>
       <c r="Z518" s="4"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:26">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="5"/>
@@ -18310,7 +18649,7 @@
       <c r="Y519" s="4"/>
       <c r="Z519" s="4"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:26">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="5"/>
@@ -18338,7 +18677,7 @@
       <c r="Y520" s="4"/>
       <c r="Z520" s="4"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:26">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="5"/>
@@ -18366,7 +18705,7 @@
       <c r="Y521" s="4"/>
       <c r="Z521" s="4"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:26">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="5"/>
@@ -18394,7 +18733,7 @@
       <c r="Y522" s="4"/>
       <c r="Z522" s="4"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:26">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="5"/>
@@ -18422,7 +18761,7 @@
       <c r="Y523" s="4"/>
       <c r="Z523" s="4"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:26">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="5"/>
@@ -18450,7 +18789,7 @@
       <c r="Y524" s="4"/>
       <c r="Z524" s="4"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:26">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="5"/>
@@ -18478,7 +18817,7 @@
       <c r="Y525" s="4"/>
       <c r="Z525" s="4"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:26">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="5"/>
@@ -18506,7 +18845,7 @@
       <c r="Y526" s="4"/>
       <c r="Z526" s="4"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:26">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="5"/>
@@ -18534,7 +18873,7 @@
       <c r="Y527" s="4"/>
       <c r="Z527" s="4"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:26">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="5"/>
@@ -18562,7 +18901,7 @@
       <c r="Y528" s="4"/>
       <c r="Z528" s="4"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:26">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="5"/>
@@ -18590,7 +18929,7 @@
       <c r="Y529" s="4"/>
       <c r="Z529" s="4"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:26">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="5"/>
@@ -18618,7 +18957,7 @@
       <c r="Y530" s="4"/>
       <c r="Z530" s="4"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:26">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="5"/>
@@ -18646,7 +18985,7 @@
       <c r="Y531" s="4"/>
       <c r="Z531" s="4"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:26">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="5"/>
@@ -18674,7 +19013,7 @@
       <c r="Y532" s="4"/>
       <c r="Z532" s="4"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:26">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="5"/>
@@ -18702,7 +19041,7 @@
       <c r="Y533" s="4"/>
       <c r="Z533" s="4"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:26">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="5"/>
@@ -18730,7 +19069,7 @@
       <c r="Y534" s="4"/>
       <c r="Z534" s="4"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:26">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="5"/>
@@ -18758,7 +19097,7 @@
       <c r="Y535" s="4"/>
       <c r="Z535" s="4"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:26">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="5"/>
@@ -18786,7 +19125,7 @@
       <c r="Y536" s="4"/>
       <c r="Z536" s="4"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:26">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="5"/>
@@ -18814,7 +19153,7 @@
       <c r="Y537" s="4"/>
       <c r="Z537" s="4"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:26">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="5"/>
@@ -18842,7 +19181,7 @@
       <c r="Y538" s="4"/>
       <c r="Z538" s="4"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:26">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="5"/>
@@ -18870,7 +19209,7 @@
       <c r="Y539" s="4"/>
       <c r="Z539" s="4"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:26">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="5"/>
@@ -18898,7 +19237,7 @@
       <c r="Y540" s="4"/>
       <c r="Z540" s="4"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:26">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="5"/>
@@ -18926,7 +19265,7 @@
       <c r="Y541" s="4"/>
       <c r="Z541" s="4"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:26">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="5"/>
@@ -18954,7 +19293,7 @@
       <c r="Y542" s="4"/>
       <c r="Z542" s="4"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:26">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="5"/>
@@ -18982,7 +19321,7 @@
       <c r="Y543" s="4"/>
       <c r="Z543" s="4"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:26">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="5"/>
@@ -19010,7 +19349,7 @@
       <c r="Y544" s="4"/>
       <c r="Z544" s="4"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:26">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="5"/>
@@ -19038,7 +19377,7 @@
       <c r="Y545" s="4"/>
       <c r="Z545" s="4"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:26">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="5"/>
@@ -19066,7 +19405,7 @@
       <c r="Y546" s="4"/>
       <c r="Z546" s="4"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:26">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="5"/>
@@ -19094,7 +19433,7 @@
       <c r="Y547" s="4"/>
       <c r="Z547" s="4"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:26">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="5"/>
@@ -19122,7 +19461,7 @@
       <c r="Y548" s="4"/>
       <c r="Z548" s="4"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:26">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="5"/>
@@ -19150,7 +19489,7 @@
       <c r="Y549" s="4"/>
       <c r="Z549" s="4"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:26">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="5"/>
@@ -19178,7 +19517,7 @@
       <c r="Y550" s="4"/>
       <c r="Z550" s="4"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:26">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="5"/>
@@ -19206,7 +19545,7 @@
       <c r="Y551" s="4"/>
       <c r="Z551" s="4"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:26">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="5"/>
@@ -19234,7 +19573,7 @@
       <c r="Y552" s="4"/>
       <c r="Z552" s="4"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:26">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="5"/>
@@ -19262,7 +19601,7 @@
       <c r="Y553" s="4"/>
       <c r="Z553" s="4"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:26">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="5"/>
@@ -19290,7 +19629,7 @@
       <c r="Y554" s="4"/>
       <c r="Z554" s="4"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:26">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="5"/>
@@ -19318,7 +19657,7 @@
       <c r="Y555" s="4"/>
       <c r="Z555" s="4"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:26">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="5"/>
@@ -19346,7 +19685,7 @@
       <c r="Y556" s="4"/>
       <c r="Z556" s="4"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:26">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="5"/>
@@ -19374,7 +19713,7 @@
       <c r="Y557" s="4"/>
       <c r="Z557" s="4"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:26">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="5"/>
@@ -19402,7 +19741,7 @@
       <c r="Y558" s="4"/>
       <c r="Z558" s="4"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:26">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="5"/>
@@ -19430,7 +19769,7 @@
       <c r="Y559" s="4"/>
       <c r="Z559" s="4"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:26">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="5"/>
@@ -19458,7 +19797,7 @@
       <c r="Y560" s="4"/>
       <c r="Z560" s="4"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:26">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="5"/>
@@ -19486,7 +19825,7 @@
       <c r="Y561" s="4"/>
       <c r="Z561" s="4"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:26">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="5"/>
@@ -19514,7 +19853,7 @@
       <c r="Y562" s="4"/>
       <c r="Z562" s="4"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:26">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="5"/>
@@ -19542,7 +19881,7 @@
       <c r="Y563" s="4"/>
       <c r="Z563" s="4"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:26">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="5"/>
@@ -19570,7 +19909,7 @@
       <c r="Y564" s="4"/>
       <c r="Z564" s="4"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:26">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="5"/>
@@ -19598,7 +19937,7 @@
       <c r="Y565" s="4"/>
       <c r="Z565" s="4"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:26">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="5"/>
@@ -19626,7 +19965,7 @@
       <c r="Y566" s="4"/>
       <c r="Z566" s="4"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:26">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="5"/>
@@ -19654,7 +19993,7 @@
       <c r="Y567" s="4"/>
       <c r="Z567" s="4"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:26">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="5"/>
@@ -19682,7 +20021,7 @@
       <c r="Y568" s="4"/>
       <c r="Z568" s="4"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:26">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="5"/>
@@ -19710,7 +20049,7 @@
       <c r="Y569" s="4"/>
       <c r="Z569" s="4"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:26">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="5"/>
@@ -19738,7 +20077,7 @@
       <c r="Y570" s="4"/>
       <c r="Z570" s="4"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:26">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="5"/>
@@ -19766,7 +20105,7 @@
       <c r="Y571" s="4"/>
       <c r="Z571" s="4"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:26">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="5"/>
@@ -19794,7 +20133,7 @@
       <c r="Y572" s="4"/>
       <c r="Z572" s="4"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:26">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="5"/>
@@ -19822,7 +20161,7 @@
       <c r="Y573" s="4"/>
       <c r="Z573" s="4"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:26">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="5"/>
@@ -19850,7 +20189,7 @@
       <c r="Y574" s="4"/>
       <c r="Z574" s="4"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:26">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="5"/>
@@ -19878,7 +20217,7 @@
       <c r="Y575" s="4"/>
       <c r="Z575" s="4"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:26">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="5"/>
@@ -19906,7 +20245,7 @@
       <c r="Y576" s="4"/>
       <c r="Z576" s="4"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:26">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="5"/>
@@ -19934,7 +20273,7 @@
       <c r="Y577" s="4"/>
       <c r="Z577" s="4"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:26">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="5"/>
@@ -19962,7 +20301,7 @@
       <c r="Y578" s="4"/>
       <c r="Z578" s="4"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:26">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="5"/>
@@ -19990,7 +20329,7 @@
       <c r="Y579" s="4"/>
       <c r="Z579" s="4"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:26">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="5"/>
@@ -20018,7 +20357,7 @@
       <c r="Y580" s="4"/>
       <c r="Z580" s="4"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:26">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="5"/>
@@ -20046,7 +20385,7 @@
       <c r="Y581" s="4"/>
       <c r="Z581" s="4"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:26">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="5"/>
@@ -20074,7 +20413,7 @@
       <c r="Y582" s="4"/>
       <c r="Z582" s="4"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:26">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="5"/>
@@ -20102,7 +20441,7 @@
       <c r="Y583" s="4"/>
       <c r="Z583" s="4"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:26">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="5"/>
@@ -20130,7 +20469,7 @@
       <c r="Y584" s="4"/>
       <c r="Z584" s="4"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:26">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="5"/>
@@ -20158,7 +20497,7 @@
       <c r="Y585" s="4"/>
       <c r="Z585" s="4"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:26">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="5"/>
@@ -20186,7 +20525,7 @@
       <c r="Y586" s="4"/>
       <c r="Z586" s="4"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:26">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="5"/>
@@ -20214,7 +20553,7 @@
       <c r="Y587" s="4"/>
       <c r="Z587" s="4"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:26">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="5"/>
@@ -20242,7 +20581,7 @@
       <c r="Y588" s="4"/>
       <c r="Z588" s="4"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:26">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="5"/>
@@ -20270,7 +20609,7 @@
       <c r="Y589" s="4"/>
       <c r="Z589" s="4"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:26">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="5"/>
@@ -20298,7 +20637,7 @@
       <c r="Y590" s="4"/>
       <c r="Z590" s="4"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:26">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="5"/>
@@ -20326,7 +20665,7 @@
       <c r="Y591" s="4"/>
       <c r="Z591" s="4"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:26">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="5"/>
@@ -20354,7 +20693,7 @@
       <c r="Y592" s="4"/>
       <c r="Z592" s="4"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:26">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="5"/>
@@ -20382,7 +20721,7 @@
       <c r="Y593" s="4"/>
       <c r="Z593" s="4"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:26">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="5"/>
@@ -20410,7 +20749,7 @@
       <c r="Y594" s="4"/>
       <c r="Z594" s="4"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:26">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="5"/>
@@ -20438,7 +20777,7 @@
       <c r="Y595" s="4"/>
       <c r="Z595" s="4"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:26">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="5"/>
@@ -20466,7 +20805,7 @@
       <c r="Y596" s="4"/>
       <c r="Z596" s="4"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:26">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="5"/>
@@ -20494,7 +20833,7 @@
       <c r="Y597" s="4"/>
       <c r="Z597" s="4"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:26">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="5"/>
@@ -20522,7 +20861,7 @@
       <c r="Y598" s="4"/>
       <c r="Z598" s="4"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:26">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="5"/>
@@ -20550,7 +20889,7 @@
       <c r="Y599" s="4"/>
       <c r="Z599" s="4"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:26">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="5"/>
@@ -20578,7 +20917,7 @@
       <c r="Y600" s="4"/>
       <c r="Z600" s="4"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:26">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="5"/>
@@ -20606,7 +20945,7 @@
       <c r="Y601" s="4"/>
       <c r="Z601" s="4"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:26">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="5"/>
@@ -20634,7 +20973,7 @@
       <c r="Y602" s="4"/>
       <c r="Z602" s="4"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:26">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="5"/>
@@ -20662,7 +21001,7 @@
       <c r="Y603" s="4"/>
       <c r="Z603" s="4"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:26">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="5"/>
@@ -20690,7 +21029,7 @@
       <c r="Y604" s="4"/>
       <c r="Z604" s="4"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:26">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="5"/>
@@ -20718,7 +21057,7 @@
       <c r="Y605" s="4"/>
       <c r="Z605" s="4"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:26">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="5"/>
@@ -20746,7 +21085,7 @@
       <c r="Y606" s="4"/>
       <c r="Z606" s="4"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="1:26">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="5"/>
@@ -20774,7 +21113,7 @@
       <c r="Y607" s="4"/>
       <c r="Z607" s="4"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="1:26">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="5"/>
@@ -20802,7 +21141,7 @@
       <c r="Y608" s="4"/>
       <c r="Z608" s="4"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="1:26">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="5"/>
@@ -20830,7 +21169,7 @@
       <c r="Y609" s="4"/>
       <c r="Z609" s="4"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="1:26">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="5"/>
@@ -20858,7 +21197,7 @@
       <c r="Y610" s="4"/>
       <c r="Z610" s="4"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="1:26">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="5"/>
@@ -20886,7 +21225,7 @@
       <c r="Y611" s="4"/>
       <c r="Z611" s="4"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="1:26">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="5"/>
@@ -20914,7 +21253,7 @@
       <c r="Y612" s="4"/>
       <c r="Z612" s="4"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="1:26">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="5"/>
@@ -20942,7 +21281,7 @@
       <c r="Y613" s="4"/>
       <c r="Z613" s="4"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="1:26">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="5"/>
@@ -20970,7 +21309,7 @@
       <c r="Y614" s="4"/>
       <c r="Z614" s="4"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="1:26">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="5"/>
@@ -20998,7 +21337,7 @@
       <c r="Y615" s="4"/>
       <c r="Z615" s="4"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="1:26">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="5"/>
@@ -21026,7 +21365,7 @@
       <c r="Y616" s="4"/>
       <c r="Z616" s="4"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="1:26">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="5"/>
@@ -21054,7 +21393,7 @@
       <c r="Y617" s="4"/>
       <c r="Z617" s="4"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="1:26">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="5"/>
@@ -21082,7 +21421,7 @@
       <c r="Y618" s="4"/>
       <c r="Z618" s="4"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="1:26">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="5"/>
@@ -21110,7 +21449,7 @@
       <c r="Y619" s="4"/>
       <c r="Z619" s="4"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="1:26">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="5"/>
@@ -21138,7 +21477,7 @@
       <c r="Y620" s="4"/>
       <c r="Z620" s="4"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="1:26">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="5"/>
@@ -21166,7 +21505,7 @@
       <c r="Y621" s="4"/>
       <c r="Z621" s="4"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="1:26">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="5"/>
@@ -21194,7 +21533,7 @@
       <c r="Y622" s="4"/>
       <c r="Z622" s="4"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="1:26">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="5"/>
@@ -21222,7 +21561,7 @@
       <c r="Y623" s="4"/>
       <c r="Z623" s="4"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="1:26">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="5"/>
@@ -21250,7 +21589,7 @@
       <c r="Y624" s="4"/>
       <c r="Z624" s="4"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="1:26">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="5"/>
@@ -21278,7 +21617,7 @@
       <c r="Y625" s="4"/>
       <c r="Z625" s="4"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="1:26">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="5"/>
@@ -21306,7 +21645,7 @@
       <c r="Y626" s="4"/>
       <c r="Z626" s="4"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="1:26">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="5"/>
@@ -21334,7 +21673,7 @@
       <c r="Y627" s="4"/>
       <c r="Z627" s="4"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="1:26">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="5"/>
@@ -21362,7 +21701,7 @@
       <c r="Y628" s="4"/>
       <c r="Z628" s="4"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="1:26">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="5"/>
@@ -21390,7 +21729,7 @@
       <c r="Y629" s="4"/>
       <c r="Z629" s="4"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="1:26">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="5"/>
@@ -21418,7 +21757,7 @@
       <c r="Y630" s="4"/>
       <c r="Z630" s="4"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="1:26">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="5"/>
@@ -21446,7 +21785,7 @@
       <c r="Y631" s="4"/>
       <c r="Z631" s="4"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="1:26">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="5"/>
@@ -21474,7 +21813,7 @@
       <c r="Y632" s="4"/>
       <c r="Z632" s="4"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="1:26">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="5"/>
@@ -21502,7 +21841,7 @@
       <c r="Y633" s="4"/>
       <c r="Z633" s="4"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="1:26">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="5"/>
@@ -21530,7 +21869,7 @@
       <c r="Y634" s="4"/>
       <c r="Z634" s="4"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="1:26">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="5"/>
@@ -21558,7 +21897,7 @@
       <c r="Y635" s="4"/>
       <c r="Z635" s="4"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="1:26">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="5"/>
@@ -21586,7 +21925,7 @@
       <c r="Y636" s="4"/>
       <c r="Z636" s="4"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="1:26">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="5"/>
@@ -21614,7 +21953,7 @@
       <c r="Y637" s="4"/>
       <c r="Z637" s="4"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="1:26">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="5"/>
@@ -21642,7 +21981,7 @@
       <c r="Y638" s="4"/>
       <c r="Z638" s="4"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="1:26">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="5"/>
@@ -21670,7 +22009,7 @@
       <c r="Y639" s="4"/>
       <c r="Z639" s="4"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="1:26">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="5"/>
@@ -21698,7 +22037,7 @@
       <c r="Y640" s="4"/>
       <c r="Z640" s="4"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="1:26">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="5"/>
@@ -21726,7 +22065,7 @@
       <c r="Y641" s="4"/>
       <c r="Z641" s="4"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="1:26">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="5"/>
@@ -21754,7 +22093,7 @@
       <c r="Y642" s="4"/>
       <c r="Z642" s="4"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="1:26">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="5"/>
@@ -21782,7 +22121,7 @@
       <c r="Y643" s="4"/>
       <c r="Z643" s="4"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="1:26">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="5"/>
@@ -21810,7 +22149,7 @@
       <c r="Y644" s="4"/>
       <c r="Z644" s="4"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="1:26">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="5"/>
@@ -21838,7 +22177,7 @@
       <c r="Y645" s="4"/>
       <c r="Z645" s="4"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="1:26">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="5"/>
@@ -21866,7 +22205,7 @@
       <c r="Y646" s="4"/>
       <c r="Z646" s="4"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="1:26">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="5"/>
@@ -21894,7 +22233,7 @@
       <c r="Y647" s="4"/>
       <c r="Z647" s="4"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="1:26">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="5"/>
@@ -21922,7 +22261,7 @@
       <c r="Y648" s="4"/>
       <c r="Z648" s="4"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="1:26">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="5"/>
@@ -21950,7 +22289,7 @@
       <c r="Y649" s="4"/>
       <c r="Z649" s="4"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="1:26">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="5"/>
@@ -21978,7 +22317,7 @@
       <c r="Y650" s="4"/>
       <c r="Z650" s="4"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="1:26">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="5"/>
@@ -22006,7 +22345,7 @@
       <c r="Y651" s="4"/>
       <c r="Z651" s="4"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="1:26">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="5"/>
@@ -22034,7 +22373,7 @@
       <c r="Y652" s="4"/>
       <c r="Z652" s="4"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="1:26">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="5"/>
@@ -22062,7 +22401,7 @@
       <c r="Y653" s="4"/>
       <c r="Z653" s="4"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="1:26">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="5"/>
@@ -22090,7 +22429,7 @@
       <c r="Y654" s="4"/>
       <c r="Z654" s="4"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="1:26">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="5"/>
@@ -22118,7 +22457,7 @@
       <c r="Y655" s="4"/>
       <c r="Z655" s="4"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="1:26">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="5"/>
@@ -22146,7 +22485,7 @@
       <c r="Y656" s="4"/>
       <c r="Z656" s="4"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="1:26">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="5"/>
@@ -22174,7 +22513,7 @@
       <c r="Y657" s="4"/>
       <c r="Z657" s="4"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="1:26">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="5"/>
@@ -22202,7 +22541,7 @@
       <c r="Y658" s="4"/>
       <c r="Z658" s="4"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="1:26">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="5"/>
@@ -22230,7 +22569,7 @@
       <c r="Y659" s="4"/>
       <c r="Z659" s="4"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="1:26">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="5"/>
@@ -22258,7 +22597,7 @@
       <c r="Y660" s="4"/>
       <c r="Z660" s="4"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="1:26">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="5"/>
@@ -22286,7 +22625,7 @@
       <c r="Y661" s="4"/>
       <c r="Z661" s="4"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="1:26">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="5"/>
@@ -22314,7 +22653,7 @@
       <c r="Y662" s="4"/>
       <c r="Z662" s="4"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="1:26">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="5"/>
@@ -22342,7 +22681,7 @@
       <c r="Y663" s="4"/>
       <c r="Z663" s="4"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="1:26">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="5"/>
@@ -22370,7 +22709,7 @@
       <c r="Y664" s="4"/>
       <c r="Z664" s="4"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="1:26">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="5"/>
@@ -22398,7 +22737,7 @@
       <c r="Y665" s="4"/>
       <c r="Z665" s="4"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="1:26">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="5"/>
@@ -22426,7 +22765,7 @@
       <c r="Y666" s="4"/>
       <c r="Z666" s="4"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="1:26">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="5"/>
@@ -22454,7 +22793,7 @@
       <c r="Y667" s="4"/>
       <c r="Z667" s="4"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="1:26">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="5"/>
@@ -22482,7 +22821,7 @@
       <c r="Y668" s="4"/>
       <c r="Z668" s="4"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="1:26">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="5"/>
@@ -22510,7 +22849,7 @@
       <c r="Y669" s="4"/>
       <c r="Z669" s="4"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="1:26">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="5"/>
@@ -22538,7 +22877,7 @@
       <c r="Y670" s="4"/>
       <c r="Z670" s="4"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="1:26">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="5"/>
@@ -22566,7 +22905,7 @@
       <c r="Y671" s="4"/>
       <c r="Z671" s="4"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="1:26">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="5"/>
@@ -22594,7 +22933,7 @@
       <c r="Y672" s="4"/>
       <c r="Z672" s="4"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="1:26">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="5"/>
@@ -22622,7 +22961,7 @@
       <c r="Y673" s="4"/>
       <c r="Z673" s="4"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="1:26">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="5"/>
@@ -22650,7 +22989,7 @@
       <c r="Y674" s="4"/>
       <c r="Z674" s="4"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="1:26">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="5"/>
@@ -22678,7 +23017,7 @@
       <c r="Y675" s="4"/>
       <c r="Z675" s="4"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="1:26">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="5"/>
@@ -22706,7 +23045,7 @@
       <c r="Y676" s="4"/>
       <c r="Z676" s="4"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="1:26">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="5"/>
@@ -22734,7 +23073,7 @@
       <c r="Y677" s="4"/>
       <c r="Z677" s="4"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="1:26">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="5"/>
@@ -22762,7 +23101,7 @@
       <c r="Y678" s="4"/>
       <c r="Z678" s="4"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="1:26">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="5"/>
@@ -22790,7 +23129,7 @@
       <c r="Y679" s="4"/>
       <c r="Z679" s="4"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="1:26">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="5"/>
@@ -22818,7 +23157,7 @@
       <c r="Y680" s="4"/>
       <c r="Z680" s="4"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="1:26">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="5"/>
@@ -22846,7 +23185,7 @@
       <c r="Y681" s="4"/>
       <c r="Z681" s="4"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="1:26">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="5"/>
@@ -22874,7 +23213,7 @@
       <c r="Y682" s="4"/>
       <c r="Z682" s="4"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="1:26">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="5"/>
@@ -22902,7 +23241,7 @@
       <c r="Y683" s="4"/>
       <c r="Z683" s="4"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="1:26">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="5"/>
@@ -22930,7 +23269,7 @@
       <c r="Y684" s="4"/>
       <c r="Z684" s="4"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="1:26">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="5"/>
@@ -22958,7 +23297,7 @@
       <c r="Y685" s="4"/>
       <c r="Z685" s="4"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="1:26">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="5"/>
@@ -22986,7 +23325,7 @@
       <c r="Y686" s="4"/>
       <c r="Z686" s="4"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="1:26">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="5"/>
@@ -23014,7 +23353,7 @@
       <c r="Y687" s="4"/>
       <c r="Z687" s="4"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="1:26">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="5"/>
@@ -23042,7 +23381,7 @@
       <c r="Y688" s="4"/>
       <c r="Z688" s="4"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="1:26">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="5"/>
@@ -23070,7 +23409,7 @@
       <c r="Y689" s="4"/>
       <c r="Z689" s="4"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="1:26">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="5"/>
@@ -23098,7 +23437,7 @@
       <c r="Y690" s="4"/>
       <c r="Z690" s="4"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="1:26">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="5"/>
@@ -23126,7 +23465,7 @@
       <c r="Y691" s="4"/>
       <c r="Z691" s="4"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="1:26">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="5"/>
@@ -23154,7 +23493,7 @@
       <c r="Y692" s="4"/>
       <c r="Z692" s="4"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="1:26">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="5"/>
@@ -23182,7 +23521,7 @@
       <c r="Y693" s="4"/>
       <c r="Z693" s="4"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="1:26">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="5"/>
@@ -23210,7 +23549,7 @@
       <c r="Y694" s="4"/>
       <c r="Z694" s="4"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="1:26">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="5"/>
@@ -23238,7 +23577,7 @@
       <c r="Y695" s="4"/>
       <c r="Z695" s="4"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="1:26">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="5"/>
@@ -23266,7 +23605,7 @@
       <c r="Y696" s="4"/>
       <c r="Z696" s="4"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="1:26">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="5"/>
@@ -23294,7 +23633,7 @@
       <c r="Y697" s="4"/>
       <c r="Z697" s="4"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="1:26">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="5"/>
@@ -23322,7 +23661,7 @@
       <c r="Y698" s="4"/>
       <c r="Z698" s="4"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="1:26">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="5"/>
@@ -23350,7 +23689,7 @@
       <c r="Y699" s="4"/>
       <c r="Z699" s="4"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="1:26">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="5"/>
@@ -23378,7 +23717,7 @@
       <c r="Y700" s="4"/>
       <c r="Z700" s="4"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="1:26">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="5"/>
@@ -23406,7 +23745,7 @@
       <c r="Y701" s="4"/>
       <c r="Z701" s="4"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="1:26">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="5"/>
@@ -23434,7 +23773,7 @@
       <c r="Y702" s="4"/>
       <c r="Z702" s="4"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="1:26">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="5"/>
@@ -23462,7 +23801,7 @@
       <c r="Y703" s="4"/>
       <c r="Z703" s="4"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="1:26">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="5"/>
@@ -23490,7 +23829,7 @@
       <c r="Y704" s="4"/>
       <c r="Z704" s="4"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="1:26">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="5"/>
@@ -23518,7 +23857,7 @@
       <c r="Y705" s="4"/>
       <c r="Z705" s="4"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="1:26">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="5"/>
@@ -23546,7 +23885,7 @@
       <c r="Y706" s="4"/>
       <c r="Z706" s="4"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="1:26">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="5"/>
@@ -23574,7 +23913,7 @@
       <c r="Y707" s="4"/>
       <c r="Z707" s="4"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="1:26">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="5"/>
@@ -23602,7 +23941,7 @@
       <c r="Y708" s="4"/>
       <c r="Z708" s="4"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="1:26">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="5"/>
@@ -23630,7 +23969,7 @@
       <c r="Y709" s="4"/>
       <c r="Z709" s="4"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="1:26">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="5"/>
@@ -23658,7 +23997,7 @@
       <c r="Y710" s="4"/>
       <c r="Z710" s="4"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="1:26">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="5"/>
@@ -23686,7 +24025,7 @@
       <c r="Y711" s="4"/>
       <c r="Z711" s="4"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="1:26">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="5"/>
@@ -23714,7 +24053,7 @@
       <c r="Y712" s="4"/>
       <c r="Z712" s="4"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="1:26">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="5"/>
@@ -23742,7 +24081,7 @@
       <c r="Y713" s="4"/>
       <c r="Z713" s="4"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="1:26">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="5"/>
@@ -23770,7 +24109,7 @@
       <c r="Y714" s="4"/>
       <c r="Z714" s="4"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="1:26">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="5"/>
@@ -23798,7 +24137,7 @@
       <c r="Y715" s="4"/>
       <c r="Z715" s="4"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="1:26">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="5"/>
@@ -23826,7 +24165,7 @@
       <c r="Y716" s="4"/>
       <c r="Z716" s="4"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="1:26">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="5"/>
@@ -23854,7 +24193,7 @@
       <c r="Y717" s="4"/>
       <c r="Z717" s="4"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="1:26">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="5"/>
@@ -23882,7 +24221,7 @@
       <c r="Y718" s="4"/>
       <c r="Z718" s="4"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="1:26">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="5"/>
@@ -23910,7 +24249,7 @@
       <c r="Y719" s="4"/>
       <c r="Z719" s="4"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="1:26">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="5"/>
@@ -23938,7 +24277,7 @@
       <c r="Y720" s="4"/>
       <c r="Z720" s="4"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="1:26">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="5"/>
@@ -23966,7 +24305,7 @@
       <c r="Y721" s="4"/>
       <c r="Z721" s="4"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="1:26">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="5"/>
@@ -23994,7 +24333,7 @@
       <c r="Y722" s="4"/>
       <c r="Z722" s="4"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="1:26">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="5"/>
@@ -24022,7 +24361,7 @@
       <c r="Y723" s="4"/>
       <c r="Z723" s="4"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="1:26">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="5"/>
@@ -24050,7 +24389,7 @@
       <c r="Y724" s="4"/>
       <c r="Z724" s="4"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="1:26">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="5"/>
@@ -24078,7 +24417,7 @@
       <c r="Y725" s="4"/>
       <c r="Z725" s="4"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="1:26">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="5"/>
@@ -24106,7 +24445,7 @@
       <c r="Y726" s="4"/>
       <c r="Z726" s="4"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="1:26">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="5"/>
@@ -24134,7 +24473,7 @@
       <c r="Y727" s="4"/>
       <c r="Z727" s="4"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="1:26">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="5"/>
@@ -24162,7 +24501,7 @@
       <c r="Y728" s="4"/>
       <c r="Z728" s="4"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="1:26">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="5"/>
@@ -24190,7 +24529,7 @@
       <c r="Y729" s="4"/>
       <c r="Z729" s="4"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="1:26">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="5"/>
@@ -24218,7 +24557,7 @@
       <c r="Y730" s="4"/>
       <c r="Z730" s="4"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="1:26">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="5"/>
@@ -24246,7 +24585,7 @@
       <c r="Y731" s="4"/>
       <c r="Z731" s="4"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="1:26">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="5"/>
@@ -24274,7 +24613,7 @@
       <c r="Y732" s="4"/>
       <c r="Z732" s="4"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="1:26">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="5"/>
@@ -24302,7 +24641,7 @@
       <c r="Y733" s="4"/>
       <c r="Z733" s="4"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="1:26">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="5"/>
@@ -24330,7 +24669,7 @@
       <c r="Y734" s="4"/>
       <c r="Z734" s="4"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="1:26">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="5"/>
@@ -24358,7 +24697,7 @@
       <c r="Y735" s="4"/>
       <c r="Z735" s="4"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="1:26">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="5"/>
@@ -24386,7 +24725,7 @@
       <c r="Y736" s="4"/>
       <c r="Z736" s="4"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="1:26">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="5"/>
@@ -24414,7 +24753,7 @@
       <c r="Y737" s="4"/>
       <c r="Z737" s="4"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="1:26">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="5"/>
@@ -24442,7 +24781,7 @@
       <c r="Y738" s="4"/>
       <c r="Z738" s="4"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="1:26">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="5"/>
@@ -24470,7 +24809,7 @@
       <c r="Y739" s="4"/>
       <c r="Z739" s="4"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="1:26">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="5"/>
@@ -24498,7 +24837,7 @@
       <c r="Y740" s="4"/>
       <c r="Z740" s="4"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="1:26">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="5"/>
@@ -24526,7 +24865,7 @@
       <c r="Y741" s="4"/>
       <c r="Z741" s="4"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="1:26">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="5"/>
@@ -24554,7 +24893,7 @@
       <c r="Y742" s="4"/>
       <c r="Z742" s="4"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="1:26">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="5"/>
@@ -24582,7 +24921,7 @@
       <c r="Y743" s="4"/>
       <c r="Z743" s="4"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="1:26">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="5"/>
@@ -24610,7 +24949,7 @@
       <c r="Y744" s="4"/>
       <c r="Z744" s="4"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="1:26">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="5"/>
@@ -24638,7 +24977,7 @@
       <c r="Y745" s="4"/>
       <c r="Z745" s="4"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="1:26">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="5"/>
@@ -24666,7 +25005,7 @@
       <c r="Y746" s="4"/>
       <c r="Z746" s="4"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="1:26">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="5"/>
@@ -24694,7 +25033,7 @@
       <c r="Y747" s="4"/>
       <c r="Z747" s="4"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="1:26">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="5"/>
@@ -24722,7 +25061,7 @@
       <c r="Y748" s="4"/>
       <c r="Z748" s="4"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="1:26">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="5"/>
@@ -24750,7 +25089,7 @@
       <c r="Y749" s="4"/>
       <c r="Z749" s="4"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="1:26">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="5"/>
@@ -24778,7 +25117,7 @@
       <c r="Y750" s="4"/>
       <c r="Z750" s="4"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="1:26">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="5"/>
@@ -24806,7 +25145,7 @@
       <c r="Y751" s="4"/>
       <c r="Z751" s="4"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="1:26">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="5"/>
@@ -24834,7 +25173,7 @@
       <c r="Y752" s="4"/>
       <c r="Z752" s="4"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="1:26">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="5"/>
@@ -24862,7 +25201,7 @@
       <c r="Y753" s="4"/>
       <c r="Z753" s="4"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="1:26">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="5"/>
@@ -24890,7 +25229,7 @@
       <c r="Y754" s="4"/>
       <c r="Z754" s="4"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="1:26">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="5"/>
@@ -24918,7 +25257,7 @@
       <c r="Y755" s="4"/>
       <c r="Z755" s="4"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="1:26">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="5"/>
@@ -24946,7 +25285,7 @@
       <c r="Y756" s="4"/>
       <c r="Z756" s="4"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="1:26">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="5"/>
@@ -24974,7 +25313,7 @@
       <c r="Y757" s="4"/>
       <c r="Z757" s="4"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="1:26">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="5"/>
@@ -25002,7 +25341,7 @@
       <c r="Y758" s="4"/>
       <c r="Z758" s="4"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="1:26">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="5"/>
@@ -25030,7 +25369,7 @@
       <c r="Y759" s="4"/>
       <c r="Z759" s="4"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="1:26">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="5"/>
@@ -25058,7 +25397,7 @@
       <c r="Y760" s="4"/>
       <c r="Z760" s="4"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="1:26">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="5"/>
@@ -25086,7 +25425,7 @@
       <c r="Y761" s="4"/>
       <c r="Z761" s="4"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="1:26">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="5"/>
@@ -25114,7 +25453,7 @@
       <c r="Y762" s="4"/>
       <c r="Z762" s="4"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="1:26">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="5"/>
@@ -25142,7 +25481,7 @@
       <c r="Y763" s="4"/>
       <c r="Z763" s="4"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="1:26">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="5"/>
@@ -25170,7 +25509,7 @@
       <c r="Y764" s="4"/>
       <c r="Z764" s="4"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="1:26">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="5"/>
@@ -25198,7 +25537,7 @@
       <c r="Y765" s="4"/>
       <c r="Z765" s="4"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="1:26">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="5"/>
@@ -25226,7 +25565,7 @@
       <c r="Y766" s="4"/>
       <c r="Z766" s="4"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="1:26">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="5"/>
@@ -25254,7 +25593,7 @@
       <c r="Y767" s="4"/>
       <c r="Z767" s="4"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="1:26">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="5"/>
@@ -25282,7 +25621,7 @@
       <c r="Y768" s="4"/>
       <c r="Z768" s="4"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="1:26">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="5"/>
@@ -25310,7 +25649,7 @@
       <c r="Y769" s="4"/>
       <c r="Z769" s="4"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="1:26">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="5"/>
@@ -25338,7 +25677,7 @@
       <c r="Y770" s="4"/>
       <c r="Z770" s="4"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="1:26">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="5"/>
@@ -25366,7 +25705,7 @@
       <c r="Y771" s="4"/>
       <c r="Z771" s="4"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="1:26">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="5"/>
@@ -25394,7 +25733,7 @@
       <c r="Y772" s="4"/>
       <c r="Z772" s="4"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="1:26">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="5"/>
@@ -25422,7 +25761,7 @@
       <c r="Y773" s="4"/>
       <c r="Z773" s="4"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="1:26">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="5"/>
@@ -25450,7 +25789,7 @@
       <c r="Y774" s="4"/>
       <c r="Z774" s="4"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="1:26">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="5"/>
@@ -25478,7 +25817,7 @@
       <c r="Y775" s="4"/>
       <c r="Z775" s="4"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="1:26">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="5"/>
@@ -25506,7 +25845,7 @@
       <c r="Y776" s="4"/>
       <c r="Z776" s="4"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="1:26">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="5"/>
@@ -25534,7 +25873,7 @@
       <c r="Y777" s="4"/>
       <c r="Z777" s="4"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="1:26">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="5"/>
@@ -25562,7 +25901,7 @@
       <c r="Y778" s="4"/>
       <c r="Z778" s="4"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="1:26">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="5"/>
@@ -25590,7 +25929,7 @@
       <c r="Y779" s="4"/>
       <c r="Z779" s="4"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="1:26">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="5"/>
@@ -25618,7 +25957,7 @@
       <c r="Y780" s="4"/>
       <c r="Z780" s="4"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="1:26">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="5"/>
@@ -25646,7 +25985,7 @@
       <c r="Y781" s="4"/>
       <c r="Z781" s="4"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="1:26">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="5"/>
@@ -25674,7 +26013,7 @@
       <c r="Y782" s="4"/>
       <c r="Z782" s="4"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="1:26">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="5"/>
@@ -25702,7 +26041,7 @@
       <c r="Y783" s="4"/>
       <c r="Z783" s="4"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="1:26">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="5"/>
@@ -25730,7 +26069,7 @@
       <c r="Y784" s="4"/>
       <c r="Z784" s="4"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="1:26">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="5"/>
@@ -25758,7 +26097,7 @@
       <c r="Y785" s="4"/>
       <c r="Z785" s="4"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="1:26">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="5"/>
@@ -25786,7 +26125,7 @@
       <c r="Y786" s="4"/>
       <c r="Z786" s="4"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="1:26">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="5"/>
@@ -25814,7 +26153,7 @@
       <c r="Y787" s="4"/>
       <c r="Z787" s="4"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="1:26">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="5"/>
@@ -25842,7 +26181,7 @@
       <c r="Y788" s="4"/>
       <c r="Z788" s="4"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="1:26">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="5"/>
@@ -25870,7 +26209,7 @@
       <c r="Y789" s="4"/>
       <c r="Z789" s="4"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="1:26">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="5"/>
@@ -25898,7 +26237,7 @@
       <c r="Y790" s="4"/>
       <c r="Z790" s="4"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="1:26">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="5"/>
@@ -25926,7 +26265,7 @@
       <c r="Y791" s="4"/>
       <c r="Z791" s="4"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="1:26">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="5"/>
@@ -25954,7 +26293,7 @@
       <c r="Y792" s="4"/>
       <c r="Z792" s="4"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="1:26">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="5"/>
@@ -25982,7 +26321,7 @@
       <c r="Y793" s="4"/>
       <c r="Z793" s="4"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="1:26">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="5"/>
@@ -26010,7 +26349,7 @@
       <c r="Y794" s="4"/>
       <c r="Z794" s="4"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="1:26">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="5"/>
@@ -26038,7 +26377,7 @@
       <c r="Y795" s="4"/>
       <c r="Z795" s="4"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="1:26">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="5"/>
@@ -26066,7 +26405,7 @@
       <c r="Y796" s="4"/>
       <c r="Z796" s="4"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="1:26">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="5"/>
@@ -26094,7 +26433,7 @@
       <c r="Y797" s="4"/>
       <c r="Z797" s="4"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="1:26">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="5"/>
@@ -26122,7 +26461,7 @@
       <c r="Y798" s="4"/>
       <c r="Z798" s="4"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="1:26">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="5"/>
@@ -26150,7 +26489,7 @@
       <c r="Y799" s="4"/>
       <c r="Z799" s="4"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="1:26">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="5"/>
@@ -26178,7 +26517,7 @@
       <c r="Y800" s="4"/>
       <c r="Z800" s="4"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="1:26">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="5"/>
@@ -26206,7 +26545,7 @@
       <c r="Y801" s="4"/>
       <c r="Z801" s="4"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="1:26">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="5"/>
@@ -26234,7 +26573,7 @@
       <c r="Y802" s="4"/>
       <c r="Z802" s="4"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="1:26">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="5"/>
@@ -26262,7 +26601,7 @@
       <c r="Y803" s="4"/>
       <c r="Z803" s="4"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="1:26">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="5"/>
@@ -26290,7 +26629,7 @@
       <c r="Y804" s="4"/>
       <c r="Z804" s="4"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="1:26">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="5"/>
@@ -26318,7 +26657,7 @@
       <c r="Y805" s="4"/>
       <c r="Z805" s="4"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="1:26">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="5"/>
@@ -26346,7 +26685,7 @@
       <c r="Y806" s="4"/>
       <c r="Z806" s="4"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="1:26">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="5"/>
@@ -26374,7 +26713,7 @@
       <c r="Y807" s="4"/>
       <c r="Z807" s="4"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="1:26">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="5"/>
@@ -26402,7 +26741,7 @@
       <c r="Y808" s="4"/>
       <c r="Z808" s="4"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="1:26">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="5"/>
@@ -26430,7 +26769,7 @@
       <c r="Y809" s="4"/>
       <c r="Z809" s="4"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="1:26">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="5"/>
@@ -26458,7 +26797,7 @@
       <c r="Y810" s="4"/>
       <c r="Z810" s="4"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="1:26">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="5"/>
@@ -26486,7 +26825,7 @@
       <c r="Y811" s="4"/>
       <c r="Z811" s="4"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="1:26">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="5"/>
@@ -26514,7 +26853,7 @@
       <c r="Y812" s="4"/>
       <c r="Z812" s="4"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="1:26">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="5"/>
@@ -26542,7 +26881,7 @@
       <c r="Y813" s="4"/>
       <c r="Z813" s="4"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="1:26">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="5"/>
@@ -26570,7 +26909,7 @@
       <c r="Y814" s="4"/>
       <c r="Z814" s="4"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="1:26">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="5"/>
@@ -26598,7 +26937,7 @@
       <c r="Y815" s="4"/>
       <c r="Z815" s="4"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="1:26">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="5"/>
@@ -26626,7 +26965,7 @@
       <c r="Y816" s="4"/>
       <c r="Z816" s="4"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="1:26">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="5"/>
@@ -26654,7 +26993,7 @@
       <c r="Y817" s="4"/>
       <c r="Z817" s="4"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="1:26">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="5"/>
@@ -26682,7 +27021,7 @@
       <c r="Y818" s="4"/>
       <c r="Z818" s="4"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="1:26">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="5"/>
@@ -26710,7 +27049,7 @@
       <c r="Y819" s="4"/>
       <c r="Z819" s="4"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="1:26">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="5"/>
@@ -26738,7 +27077,7 @@
       <c r="Y820" s="4"/>
       <c r="Z820" s="4"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="1:26">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="5"/>
@@ -26766,7 +27105,7 @@
       <c r="Y821" s="4"/>
       <c r="Z821" s="4"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="1:26">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="5"/>
@@ -26794,7 +27133,7 @@
       <c r="Y822" s="4"/>
       <c r="Z822" s="4"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="1:26">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="5"/>
@@ -26822,7 +27161,7 @@
       <c r="Y823" s="4"/>
       <c r="Z823" s="4"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="1:26">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="5"/>
@@ -26850,7 +27189,7 @@
       <c r="Y824" s="4"/>
       <c r="Z824" s="4"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="1:26">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="5"/>
@@ -26878,7 +27217,7 @@
       <c r="Y825" s="4"/>
       <c r="Z825" s="4"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="1:26">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="5"/>
@@ -26906,7 +27245,7 @@
       <c r="Y826" s="4"/>
       <c r="Z826" s="4"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="1:26">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="5"/>
@@ -26934,7 +27273,7 @@
       <c r="Y827" s="4"/>
       <c r="Z827" s="4"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="1:26">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="5"/>
@@ -26962,7 +27301,7 @@
       <c r="Y828" s="4"/>
       <c r="Z828" s="4"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="1:26">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="5"/>
@@ -26990,7 +27329,7 @@
       <c r="Y829" s="4"/>
       <c r="Z829" s="4"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="1:26">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="5"/>
@@ -27018,7 +27357,7 @@
       <c r="Y830" s="4"/>
       <c r="Z830" s="4"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="1:26">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="5"/>
@@ -27046,7 +27385,7 @@
       <c r="Y831" s="4"/>
       <c r="Z831" s="4"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="1:26">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="5"/>
@@ -27074,7 +27413,7 @@
       <c r="Y832" s="4"/>
       <c r="Z832" s="4"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="1:26">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="5"/>
@@ -27102,7 +27441,7 @@
       <c r="Y833" s="4"/>
       <c r="Z833" s="4"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="1:26">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="5"/>
@@ -27130,7 +27469,7 @@
       <c r="Y834" s="4"/>
       <c r="Z834" s="4"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="1:26">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="5"/>
@@ -27158,7 +27497,7 @@
       <c r="Y835" s="4"/>
       <c r="Z835" s="4"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="1:26">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="5"/>
@@ -27186,7 +27525,7 @@
       <c r="Y836" s="4"/>
       <c r="Z836" s="4"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="1:26">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="5"/>
@@ -27214,7 +27553,7 @@
       <c r="Y837" s="4"/>
       <c r="Z837" s="4"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="1:26">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="5"/>
@@ -27242,7 +27581,7 @@
       <c r="Y838" s="4"/>
       <c r="Z838" s="4"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="1:26">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="5"/>
@@ -27270,7 +27609,7 @@
       <c r="Y839" s="4"/>
       <c r="Z839" s="4"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="1:26">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="5"/>
@@ -27298,7 +27637,7 @@
       <c r="Y840" s="4"/>
       <c r="Z840" s="4"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="1:26">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="5"/>
@@ -27326,7 +27665,7 @@
       <c r="Y841" s="4"/>
       <c r="Z841" s="4"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="1:26">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="5"/>
@@ -27354,7 +27693,7 @@
       <c r="Y842" s="4"/>
       <c r="Z842" s="4"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="1:26">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="5"/>
@@ -27382,7 +27721,7 @@
       <c r="Y843" s="4"/>
       <c r="Z843" s="4"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="1:26">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="5"/>
@@ -27410,7 +27749,7 @@
       <c r="Y844" s="4"/>
       <c r="Z844" s="4"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="1:26">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="5"/>
@@ -27438,7 +27777,7 @@
       <c r="Y845" s="4"/>
       <c r="Z845" s="4"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="1:26">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="5"/>
@@ -27466,7 +27805,7 @@
       <c r="Y846" s="4"/>
       <c r="Z846" s="4"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="1:26">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="5"/>
@@ -27494,7 +27833,7 @@
       <c r="Y847" s="4"/>
       <c r="Z847" s="4"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="1:26">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="5"/>
@@ -27522,7 +27861,7 @@
       <c r="Y848" s="4"/>
       <c r="Z848" s="4"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="1:26">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="5"/>
@@ -27550,7 +27889,7 @@
       <c r="Y849" s="4"/>
       <c r="Z849" s="4"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="1:26">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="5"/>
@@ -27578,7 +27917,7 @@
       <c r="Y850" s="4"/>
       <c r="Z850" s="4"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="1:26">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="5"/>
@@ -27606,7 +27945,7 @@
       <c r="Y851" s="4"/>
       <c r="Z851" s="4"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="1:26">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="5"/>
@@ -27634,7 +27973,7 @@
       <c r="Y852" s="4"/>
       <c r="Z852" s="4"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="1:26">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="5"/>
@@ -27662,7 +28001,7 @@
       <c r="Y853" s="4"/>
       <c r="Z853" s="4"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="1:26">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="5"/>
@@ -27690,7 +28029,7 @@
       <c r="Y854" s="4"/>
       <c r="Z854" s="4"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="1:26">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="5"/>
@@ -27718,7 +28057,7 @@
       <c r="Y855" s="4"/>
       <c r="Z855" s="4"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="1:26">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="5"/>
@@ -27746,7 +28085,7 @@
       <c r="Y856" s="4"/>
       <c r="Z856" s="4"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="1:26">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="5"/>
@@ -27774,7 +28113,7 @@
       <c r="Y857" s="4"/>
       <c r="Z857" s="4"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="1:26">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="5"/>
@@ -27802,7 +28141,7 @@
       <c r="Y858" s="4"/>
       <c r="Z858" s="4"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="1:26">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="5"/>
@@ -27830,7 +28169,7 @@
       <c r="Y859" s="4"/>
       <c r="Z859" s="4"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="1:26">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="5"/>
@@ -27858,7 +28197,7 @@
       <c r="Y860" s="4"/>
       <c r="Z860" s="4"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="1:26">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="5"/>
@@ -27886,7 +28225,7 @@
       <c r="Y861" s="4"/>
       <c r="Z861" s="4"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="1:26">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="5"/>
@@ -27914,7 +28253,7 @@
       <c r="Y862" s="4"/>
       <c r="Z862" s="4"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="1:26">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="5"/>
@@ -27942,7 +28281,7 @@
       <c r="Y863" s="4"/>
       <c r="Z863" s="4"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="1:26">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="5"/>
@@ -27970,7 +28309,7 @@
       <c r="Y864" s="4"/>
       <c r="Z864" s="4"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="1:26">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="5"/>
@@ -27998,7 +28337,7 @@
       <c r="Y865" s="4"/>
       <c r="Z865" s="4"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="1:26">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="5"/>
@@ -28026,7 +28365,7 @@
       <c r="Y866" s="4"/>
       <c r="Z866" s="4"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="1:26">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="5"/>
@@ -28054,7 +28393,7 @@
       <c r="Y867" s="4"/>
       <c r="Z867" s="4"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="1:26">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="5"/>
@@ -28082,7 +28421,7 @@
       <c r="Y868" s="4"/>
       <c r="Z868" s="4"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="1:26">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="5"/>
@@ -28110,7 +28449,7 @@
       <c r="Y869" s="4"/>
       <c r="Z869" s="4"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="1:26">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="5"/>
@@ -28138,7 +28477,7 @@
       <c r="Y870" s="4"/>
       <c r="Z870" s="4"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="1:26">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="5"/>
@@ -28166,7 +28505,7 @@
       <c r="Y871" s="4"/>
       <c r="Z871" s="4"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="1:26">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="5"/>
@@ -28194,7 +28533,7 @@
       <c r="Y872" s="4"/>
       <c r="Z872" s="4"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="1:26">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="5"/>
@@ -28222,7 +28561,7 @@
       <c r="Y873" s="4"/>
       <c r="Z873" s="4"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="1:26">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="5"/>
@@ -28250,7 +28589,7 @@
       <c r="Y874" s="4"/>
       <c r="Z874" s="4"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="1:26">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="5"/>
@@ -28278,7 +28617,7 @@
       <c r="Y875" s="4"/>
       <c r="Z875" s="4"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="1:26">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="5"/>
@@ -28306,7 +28645,7 @@
       <c r="Y876" s="4"/>
       <c r="Z876" s="4"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="1:26">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="5"/>
@@ -28334,7 +28673,7 @@
       <c r="Y877" s="4"/>
       <c r="Z877" s="4"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="1:26">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="5"/>
@@ -28362,7 +28701,7 @@
       <c r="Y878" s="4"/>
       <c r="Z878" s="4"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="1:26">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="5"/>
@@ -28390,7 +28729,7 @@
       <c r="Y879" s="4"/>
       <c r="Z879" s="4"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="1:26">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="5"/>
@@ -28418,7 +28757,7 @@
       <c r="Y880" s="4"/>
       <c r="Z880" s="4"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="1:26">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="5"/>
@@ -28446,7 +28785,7 @@
       <c r="Y881" s="4"/>
       <c r="Z881" s="4"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="1:26">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="5"/>
@@ -28474,7 +28813,7 @@
       <c r="Y882" s="4"/>
       <c r="Z882" s="4"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="1:26">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="5"/>
@@ -28502,7 +28841,7 @@
       <c r="Y883" s="4"/>
       <c r="Z883" s="4"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="1:26">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="5"/>
@@ -28530,7 +28869,7 @@
       <c r="Y884" s="4"/>
       <c r="Z884" s="4"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="1:26">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="5"/>
@@ -28558,7 +28897,7 @@
       <c r="Y885" s="4"/>
       <c r="Z885" s="4"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="1:26">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="5"/>
@@ -28586,7 +28925,7 @@
       <c r="Y886" s="4"/>
       <c r="Z886" s="4"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="1:26">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="5"/>
@@ -28614,7 +28953,7 @@
       <c r="Y887" s="4"/>
       <c r="Z887" s="4"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="1:26">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="5"/>
@@ -28642,7 +28981,7 @@
       <c r="Y888" s="4"/>
       <c r="Z888" s="4"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="1:26">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="5"/>
@@ -28670,7 +29009,7 @@
       <c r="Y889" s="4"/>
       <c r="Z889" s="4"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="1:26">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="5"/>
@@ -28698,7 +29037,7 @@
       <c r="Y890" s="4"/>
       <c r="Z890" s="4"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="1:26">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="5"/>
@@ -28726,7 +29065,7 @@
       <c r="Y891" s="4"/>
       <c r="Z891" s="4"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="1:26">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="5"/>
@@ -28754,7 +29093,7 @@
       <c r="Y892" s="4"/>
       <c r="Z892" s="4"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="1:26">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="5"/>
@@ -28782,7 +29121,7 @@
       <c r="Y893" s="4"/>
       <c r="Z893" s="4"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="1:26">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="5"/>
@@ -28810,7 +29149,7 @@
       <c r="Y894" s="4"/>
       <c r="Z894" s="4"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="1:26">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="5"/>
@@ -28838,7 +29177,7 @@
       <c r="Y895" s="4"/>
       <c r="Z895" s="4"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="1:26">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="5"/>
@@ -28866,7 +29205,7 @@
       <c r="Y896" s="4"/>
       <c r="Z896" s="4"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="1:26">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="5"/>
@@ -28894,7 +29233,7 @@
       <c r="Y897" s="4"/>
       <c r="Z897" s="4"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="1:26">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="5"/>
@@ -28922,7 +29261,7 @@
       <c r="Y898" s="4"/>
       <c r="Z898" s="4"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="1:26">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="5"/>
@@ -28950,7 +29289,7 @@
       <c r="Y899" s="4"/>
       <c r="Z899" s="4"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="1:26">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="5"/>
@@ -28978,7 +29317,7 @@
       <c r="Y900" s="4"/>
       <c r="Z900" s="4"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="1:26">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="5"/>
@@ -29006,7 +29345,7 @@
       <c r="Y901" s="4"/>
       <c r="Z901" s="4"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="1:26">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="5"/>
@@ -29034,7 +29373,7 @@
       <c r="Y902" s="4"/>
       <c r="Z902" s="4"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="1:26">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="5"/>
@@ -29062,7 +29401,7 @@
       <c r="Y903" s="4"/>
       <c r="Z903" s="4"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="1:26">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="5"/>
@@ -29090,7 +29429,7 @@
       <c r="Y904" s="4"/>
       <c r="Z904" s="4"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="1:26">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="5"/>
@@ -29118,7 +29457,7 @@
       <c r="Y905" s="4"/>
       <c r="Z905" s="4"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="1:26">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="5"/>
@@ -29146,7 +29485,7 @@
       <c r="Y906" s="4"/>
       <c r="Z906" s="4"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="1:26">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="5"/>
@@ -29174,7 +29513,7 @@
       <c r="Y907" s="4"/>
       <c r="Z907" s="4"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="1:26">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="5"/>
@@ -29202,7 +29541,7 @@
       <c r="Y908" s="4"/>
       <c r="Z908" s="4"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="1:26">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="5"/>
@@ -29230,7 +29569,7 @@
       <c r="Y909" s="4"/>
       <c r="Z909" s="4"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="1:26">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="5"/>
@@ -29258,7 +29597,7 @@
       <c r="Y910" s="4"/>
       <c r="Z910" s="4"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="1:26">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="5"/>
@@ -29286,7 +29625,7 @@
       <c r="Y911" s="4"/>
       <c r="Z911" s="4"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="1:26">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="5"/>
@@ -29314,7 +29653,7 @@
       <c r="Y912" s="4"/>
       <c r="Z912" s="4"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="1:26">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="5"/>
@@ -29342,7 +29681,7 @@
       <c r="Y913" s="4"/>
       <c r="Z913" s="4"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="1:26">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="5"/>
@@ -29370,7 +29709,7 @@
       <c r="Y914" s="4"/>
       <c r="Z914" s="4"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="1:26">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="5"/>
@@ -29398,7 +29737,7 @@
       <c r="Y915" s="4"/>
       <c r="Z915" s="4"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="1:26">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="5"/>
@@ -29426,7 +29765,7 @@
       <c r="Y916" s="4"/>
       <c r="Z916" s="4"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="1:26">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="5"/>
@@ -29454,7 +29793,7 @@
       <c r="Y917" s="4"/>
       <c r="Z917" s="4"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="1:26">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="5"/>
@@ -29482,7 +29821,7 @@
       <c r="Y918" s="4"/>
       <c r="Z918" s="4"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="1:26">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="5"/>
@@ -29510,7 +29849,7 @@
       <c r="Y919" s="4"/>
       <c r="Z919" s="4"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="1:26">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="5"/>
@@ -29538,7 +29877,7 @@
       <c r="Y920" s="4"/>
       <c r="Z920" s="4"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="1:26">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="5"/>
@@ -29566,7 +29905,7 @@
       <c r="Y921" s="4"/>
       <c r="Z921" s="4"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="1:26">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="5"/>
@@ -29594,7 +29933,7 @@
       <c r="Y922" s="4"/>
       <c r="Z922" s="4"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="1:26">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="5"/>
@@ -29622,7 +29961,7 @@
       <c r="Y923" s="4"/>
       <c r="Z923" s="4"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="1:26">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="5"/>
@@ -29650,7 +29989,7 @@
       <c r="Y924" s="4"/>
       <c r="Z924" s="4"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="1:26">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="5"/>
@@ -29678,7 +30017,7 @@
       <c r="Y925" s="4"/>
       <c r="Z925" s="4"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="1:26">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="5"/>
@@ -29706,7 +30045,7 @@
       <c r="Y926" s="4"/>
       <c r="Z926" s="4"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="1:26">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="5"/>
@@ -29734,7 +30073,7 @@
       <c r="Y927" s="4"/>
       <c r="Z927" s="4"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="1:26">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="5"/>
@@ -29762,7 +30101,7 @@
       <c r="Y928" s="4"/>
       <c r="Z928" s="4"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="1:26">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="5"/>
@@ -29790,7 +30129,7 @@
       <c r="Y929" s="4"/>
       <c r="Z929" s="4"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="1:26">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="5"/>
@@ -29818,7 +30157,7 @@
       <c r="Y930" s="4"/>
       <c r="Z930" s="4"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="1:26">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="5"/>
@@ -29846,7 +30185,7 @@
       <c r="Y931" s="4"/>
       <c r="Z931" s="4"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="1:26">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="5"/>
@@ -29874,7 +30213,7 @@
       <c r="Y932" s="4"/>
       <c r="Z932" s="4"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="1:26">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="5"/>
@@ -29902,7 +30241,7 @@
       <c r="Y933" s="4"/>
       <c r="Z933" s="4"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="1:26">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="5"/>
@@ -29930,7 +30269,7 @@
       <c r="Y934" s="4"/>
       <c r="Z934" s="4"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="1:26">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="5"/>
@@ -29958,7 +30297,7 @@
       <c r="Y935" s="4"/>
       <c r="Z935" s="4"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="1:26">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="5"/>
@@ -29986,7 +30325,7 @@
       <c r="Y936" s="4"/>
       <c r="Z936" s="4"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="1:26">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="5"/>
@@ -30014,7 +30353,7 @@
       <c r="Y937" s="4"/>
       <c r="Z937" s="4"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="1:26">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="5"/>
@@ -30042,7 +30381,7 @@
       <c r="Y938" s="4"/>
       <c r="Z938" s="4"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="1:26">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="5"/>
@@ -30070,7 +30409,7 @@
       <c r="Y939" s="4"/>
       <c r="Z939" s="4"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="1:26">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="5"/>
@@ -30098,7 +30437,7 @@
       <c r="Y940" s="4"/>
       <c r="Z940" s="4"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="1:26">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="5"/>
@@ -30126,7 +30465,7 @@
       <c r="Y941" s="4"/>
       <c r="Z941" s="4"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="1:26">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="5"/>
@@ -30154,7 +30493,7 @@
       <c r="Y942" s="4"/>
       <c r="Z942" s="4"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="1:26">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="5"/>
@@ -30182,7 +30521,7 @@
       <c r="Y943" s="4"/>
       <c r="Z943" s="4"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="1:26">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="5"/>
@@ -30210,7 +30549,7 @@
       <c r="Y944" s="4"/>
       <c r="Z944" s="4"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="1:26">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="5"/>
@@ -30238,7 +30577,7 @@
       <c r="Y945" s="4"/>
       <c r="Z945" s="4"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="1:26">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="5"/>
@@ -30266,7 +30605,7 @@
       <c r="Y946" s="4"/>
       <c r="Z946" s="4"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="1:26">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="5"/>
@@ -30294,7 +30633,7 @@
       <c r="Y947" s="4"/>
       <c r="Z947" s="4"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="1:26">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="5"/>
@@ -30322,7 +30661,7 @@
       <c r="Y948" s="4"/>
       <c r="Z948" s="4"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="1:26">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="5"/>
@@ -30350,7 +30689,7 @@
       <c r="Y949" s="4"/>
       <c r="Z949" s="4"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="1:26">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="5"/>
@@ -30378,7 +30717,7 @@
       <c r="Y950" s="4"/>
       <c r="Z950" s="4"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="1:26">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="5"/>
@@ -30406,7 +30745,7 @@
       <c r="Y951" s="4"/>
       <c r="Z951" s="4"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="1:26">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="5"/>
@@ -30434,7 +30773,7 @@
       <c r="Y952" s="4"/>
       <c r="Z952" s="4"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="1:26">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="5"/>
@@ -30462,7 +30801,7 @@
       <c r="Y953" s="4"/>
       <c r="Z953" s="4"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="1:26">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="5"/>
@@ -30490,7 +30829,7 @@
       <c r="Y954" s="4"/>
       <c r="Z954" s="4"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="1:26">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="5"/>
@@ -30518,7 +30857,7 @@
       <c r="Y955" s="4"/>
       <c r="Z955" s="4"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="1:26">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="5"/>
@@ -30546,7 +30885,7 @@
       <c r="Y956" s="4"/>
       <c r="Z956" s="4"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="1:26">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="5"/>
@@ -30574,7 +30913,7 @@
       <c r="Y957" s="4"/>
       <c r="Z957" s="4"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="1:26">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="5"/>
@@ -30602,7 +30941,7 @@
       <c r="Y958" s="4"/>
       <c r="Z958" s="4"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="1:26">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="5"/>
@@ -30630,7 +30969,7 @@
       <c r="Y959" s="4"/>
       <c r="Z959" s="4"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="1:26">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="5"/>
@@ -30658,7 +30997,7 @@
       <c r="Y960" s="4"/>
       <c r="Z960" s="4"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="1:26">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="5"/>
@@ -30686,7 +31025,7 @@
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="1:26">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="5"/>
@@ -30714,7 +31053,7 @@
       <c r="Y962" s="4"/>
       <c r="Z962" s="4"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="1:26">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="5"/>
@@ -30742,7 +31081,7 @@
       <c r="Y963" s="4"/>
       <c r="Z963" s="4"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="1:26">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="5"/>
@@ -30770,7 +31109,7 @@
       <c r="Y964" s="4"/>
       <c r="Z964" s="4"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="1:26">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="5"/>
@@ -30798,7 +31137,7 @@
       <c r="Y965" s="4"/>
       <c r="Z965" s="4"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="1:26">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="5"/>
@@ -30826,7 +31165,7 @@
       <c r="Y966" s="4"/>
       <c r="Z966" s="4"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="1:26">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="5"/>
@@ -30854,7 +31193,7 @@
       <c r="Y967" s="4"/>
       <c r="Z967" s="4"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="1:26">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="5"/>
@@ -30882,7 +31221,7 @@
       <c r="Y968" s="4"/>
       <c r="Z968" s="4"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="1:26">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="5"/>
@@ -30910,7 +31249,7 @@
       <c r="Y969" s="4"/>
       <c r="Z969" s="4"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="1:26">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="5"/>
@@ -30938,7 +31277,7 @@
       <c r="Y970" s="4"/>
       <c r="Z970" s="4"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="1:26">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="5"/>
@@ -30966,7 +31305,7 @@
       <c r="Y971" s="4"/>
       <c r="Z971" s="4"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="1:26">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="5"/>
@@ -30994,7 +31333,7 @@
       <c r="Y972" s="4"/>
       <c r="Z972" s="4"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="1:26">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="5"/>
@@ -31022,7 +31361,7 @@
       <c r="Y973" s="4"/>
       <c r="Z973" s="4"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="1:26">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="5"/>
@@ -31050,7 +31389,7 @@
       <c r="Y974" s="4"/>
       <c r="Z974" s="4"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="1:26">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="5"/>
@@ -31078,7 +31417,7 @@
       <c r="Y975" s="4"/>
       <c r="Z975" s="4"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="1:26">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="5"/>
@@ -31106,7 +31445,7 @@
       <c r="Y976" s="4"/>
       <c r="Z976" s="4"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="1:26">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="5"/>
@@ -31134,7 +31473,7 @@
       <c r="Y977" s="4"/>
       <c r="Z977" s="4"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="1:26">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="5"/>
@@ -31162,7 +31501,7 @@
       <c r="Y978" s="4"/>
       <c r="Z978" s="4"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="1:26">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="5"/>
@@ -31190,7 +31529,7 @@
       <c r="Y979" s="4"/>
       <c r="Z979" s="4"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="1:26">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="5"/>
@@ -31218,7 +31557,7 @@
       <c r="Y980" s="4"/>
       <c r="Z980" s="4"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="1:26">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="5"/>
@@ -31246,7 +31585,7 @@
       <c r="Y981" s="4"/>
       <c r="Z981" s="4"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="1:26">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="5"/>
@@ -31274,7 +31613,7 @@
       <c r="Y982" s="4"/>
       <c r="Z982" s="4"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="1:26">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="5"/>
@@ -31302,7 +31641,7 @@
       <c r="Y983" s="4"/>
       <c r="Z983" s="4"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="1:26">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="5"/>
@@ -31330,7 +31669,7 @@
       <c r="Y984" s="4"/>
       <c r="Z984" s="4"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="1:26">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="5"/>
@@ -31358,7 +31697,7 @@
       <c r="Y985" s="4"/>
       <c r="Z985" s="4"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="1:26">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="5"/>
@@ -31386,7 +31725,7 @@
       <c r="Y986" s="4"/>
       <c r="Z986" s="4"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="1:26">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="5"/>
@@ -31414,7 +31753,7 @@
       <c r="Y987" s="4"/>
       <c r="Z987" s="4"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="1:26">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="5"/>
@@ -31442,7 +31781,7 @@
       <c r="Y988" s="4"/>
       <c r="Z988" s="4"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="1:26">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="5"/>
@@ -31470,7 +31809,7 @@
       <c r="Y989" s="4"/>
       <c r="Z989" s="4"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="1:26">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="5"/>
@@ -31498,7 +31837,7 @@
       <c r="Y990" s="4"/>
       <c r="Z990" s="4"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="1:26">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="5"/>
@@ -31526,7 +31865,7 @@
       <c r="Y991" s="4"/>
       <c r="Z991" s="4"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="1:26">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="5"/>
@@ -31554,7 +31893,7 @@
       <c r="Y992" s="4"/>
       <c r="Z992" s="4"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="1:26">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="5"/>
@@ -31582,7 +31921,7 @@
       <c r="Y993" s="4"/>
       <c r="Z993" s="4"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="1:26">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="5"/>
@@ -31610,7 +31949,7 @@
       <c r="Y994" s="4"/>
       <c r="Z994" s="4"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="1:26">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="5"/>
@@ -31638,7 +31977,7 @@
       <c r="Y995" s="4"/>
       <c r="Z995" s="4"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="1:26">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="5"/>
@@ -31666,7 +32005,7 @@
       <c r="Y996" s="4"/>
       <c r="Z996" s="4"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="1:26">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="5"/>
@@ -31694,7 +32033,7 @@
       <c r="Y997" s="4"/>
       <c r="Z997" s="4"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="1:26">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="5"/>
@@ -31722,7 +32061,7 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="1:26">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="5"/>
@@ -31750,7 +32089,7 @@
       <c r="Y999" s="4"/>
       <c r="Z999" s="4"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="1:26">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="5"/>
@@ -31779,7 +32118,13 @@
       <c r="Z1000" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$B$1:$B$1000"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="B1:B1000"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/In-Progress-Transcriptions/Geiger TEI/Letter-tracker.xlsx.xlsx
+++ b/In-Progress-Transcriptions/Geiger TEI/Letter-tracker.xlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="559">
   <si>
     <t>File</t>
   </si>
@@ -1790,8 +1790,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1847,9 +1865,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2182,8 +2218,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8765,7 +8801,9 @@
       <c r="C214" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -8863,7 +8901,9 @@
       <c r="C217" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D217" s="3"/>
+      <c r="D217" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -8929,7 +8969,9 @@
       <c r="C219" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D219" s="3"/>
+      <c r="D219" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -8963,7 +9005,9 @@
       <c r="C220" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D220" s="3"/>
+      <c r="D220" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -8997,7 +9041,9 @@
       <c r="C221" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D221" s="3"/>
+      <c r="D221" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -9063,7 +9109,9 @@
       <c r="C223" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D223" s="3"/>
+      <c r="D223" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -9097,7 +9145,9 @@
       <c r="C224" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D224" s="3"/>
+      <c r="D224" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -9227,7 +9277,9 @@
       <c r="C228" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D228" s="3"/>
+      <c r="D228" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -9261,7 +9313,9 @@
       <c r="C229" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D229" s="3"/>
+      <c r="D229" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
